--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -795,19 +795,19 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -947,16 +947,16 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -971,10 +971,10 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -1001,10 +1001,10 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>9</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1135,16 +1135,16 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1440,7 +1440,7 @@
         <v>126</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>1.67</v>
@@ -1499,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1523,13 +1523,13 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>8</v>
@@ -1553,22 +1553,22 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
         <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>351</v>
@@ -1595,7 +1595,7 @@
         <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1831,22 +1831,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1855,22 +1855,22 @@
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>2.1</v>
@@ -1882,13 +1882,13 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1900,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1909,7 +1909,7 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1918,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1942,13 +1942,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
         <v>9.5</v>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2060,13 +2060,13 @@
         <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -2087,7 +2087,7 @@
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -2099,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2135,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2191,28 +2191,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2239,19 +2239,19 @@
         <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2269,19 +2269,19 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2290,13 +2290,13 @@
         <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2317,13 +2317,13 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2373,22 +2373,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2415,25 +2415,25 @@
         <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="n">
         <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2442,58 +2442,58 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2502,16 +2502,16 @@
         <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
@@ -2555,25 +2555,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L12" t="n">
         <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
         <v>1.03</v>
@@ -2591,40 +2591,40 @@
         <v>1.82</v>
       </c>
       <c r="S12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
         <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
         <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
@@ -2633,46 +2633,46 @@
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM12" t="n">
         <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ12" t="n">
         <v>60</v>
       </c>
       <c r="AR12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU12" t="n">
         <v>6.7</v>
@@ -2681,22 +2681,22 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="AX12" t="n">
         <v>14.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>65</v>
       </c>
       <c r="BA12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2911,46 +2911,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>4.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L14" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P14" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.98</v>
@@ -2959,49 +2959,49 @@
         <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB14" t="n">
         <v>60</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF14" t="n">
         <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AI14" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
         <v>35</v>
@@ -3010,46 +3010,46 @@
         <v>800</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ14" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AR14" t="n">
         <v>200</v>
       </c>
       <c r="AS14" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA14" t="n">
         <v>75</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>30</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>70</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>
@@ -3270,54 +3270,150 @@
           <t>Cerro Porteno</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3535,13 +3631,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
@@ -3577,10 +3673,10 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
         <v>11</v>
@@ -3604,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>12</v>
@@ -3625,7 +3721,7 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3658,7 +3754,7 @@
         <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>4.5</v>
@@ -3750,7 +3846,7 @@
         <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -3798,7 +3894,7 @@
         <v>7.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
@@ -3819,7 +3915,7 @@
         <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
@@ -3846,10 +3942,10 @@
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -4111,10 +4207,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4263,28 +4359,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="J22" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K22" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.15</v>
@@ -4299,16 +4395,16 @@
         <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V22" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="W22" t="n">
         <v>13.5</v>
@@ -4317,25 +4413,25 @@
         <v>16.5</v>
       </c>
       <c r="Y22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC22" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AD22" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AE22" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF22" t="n">
         <v>30</v>
@@ -4344,64 +4440,64 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM22" t="n">
         <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ22" t="n">
         <v>45</v>
       </c>
       <c r="AR22" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS22" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT22" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU22" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV22" t="n">
         <v>35</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB22" t="n">
         <v>120</v>
@@ -4464,7 +4560,7 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.11</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,22 +765,22 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1153,10 +1153,10 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W4" t="n">
         <v>4.75</v>
@@ -1177,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1237,7 +1237,7 @@
         <v>101</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
         <v>41</v>
@@ -1249,7 +1249,7 @@
         <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
         <v>7.5</v>
@@ -1311,16 +1311,16 @@
         <v>2.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
         <v>2.4</v>
@@ -1335,10 +1335,10 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>10</v>
@@ -1368,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>4.75</v>
@@ -1380,7 +1380,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1416,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
         <v>3.25</v>
@@ -1487,10 +1487,10 @@
         <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1523,7 +1523,7 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>6.5</v>
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1879,7 +1879,7 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
@@ -1912,10 +1912,10 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
         <v>81</v>
@@ -1957,7 +1957,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
@@ -1969,10 +1969,10 @@
         <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2057,16 +2057,16 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2099,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2135,7 +2135,7 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2209,10 +2209,10 @@
         <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2242,10 +2242,10 @@
         <v>7</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>29</v>
@@ -2272,7 +2272,7 @@
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
         <v>11</v>
@@ -2373,28 +2373,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2415,16 +2415,16 @@
         <v>2.38</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2433,7 +2433,7 @@
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2442,25 +2442,25 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
         <v>41</v>
@@ -2472,28 +2472,28 @@
         <v>201</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
         <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2502,7 +2502,7 @@
         <v>6</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
         <v>2.02</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="M12" t="n">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>1.03</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2588,13 +2588,13 @@
         <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U12" t="n">
         <v>1.65</v>
@@ -2603,10 +2603,10 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
         <v>9.25</v>
@@ -2615,10 +2615,10 @@
         <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC12" t="n">
         <v>9.5</v>
@@ -2633,43 +2633,43 @@
         <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ12" t="n">
         <v>35</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM12" t="n">
         <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
         <v>2.47</v>
@@ -2681,22 +2681,22 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AX12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BA12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2733,148 +2733,148 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>4.15</v>
+        <v>3.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>6.55</v>
+        <v>6.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W13" t="n">
         <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA13" t="n">
         <v>19</v>
       </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF13" t="n">
         <v>70</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
         <v>600</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AR13" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS13" t="n">
         <v>200</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV13" t="n">
         <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BA13" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB13" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2911,115 +2911,115 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
         <v>60</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF14" t="n">
         <v>100</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
         <v>800</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP14" t="n">
         <v>35</v>
       </c>
       <c r="AQ14" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AR14" t="n">
         <v>200</v>
@@ -3028,31 +3028,31 @@
         <v>500</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="AU14" t="n">
         <v>7.6</v>
       </c>
       <c r="AV14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -3089,10 +3089,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
         <v>4.33</v>
@@ -3119,10 +3119,10 @@
         <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
         <v>1.5</v>
@@ -3155,10 +3155,10 @@
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
@@ -3271,34 +3271,34 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
         <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -3322,7 +3322,7 @@
         <v>9.5</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -3331,16 +3331,16 @@
         <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3349,7 +3349,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH16" t="n">
         <v>10</v>
@@ -3358,7 +3358,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -3367,7 +3367,7 @@
         <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN16" t="n">
         <v>5</v>
@@ -3379,28 +3379,28 @@
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
         <v>23</v>
@@ -3412,7 +3412,7 @@
         <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3479,10 +3479,10 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3631,13 +3631,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
@@ -3646,7 +3646,7 @@
         <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3661,10 +3661,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3673,16 +3673,16 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3721,13 +3721,13 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN18" t="n">
         <v>5</v>
@@ -3754,13 +3754,13 @@
         <v>7.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
         <v>4.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
         <v>21</v>
@@ -3834,13 +3834,13 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="n">
         <v>2.05</v>
@@ -4013,10 +4013,10 @@
         <v>2.88</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.25</v>
@@ -4025,10 +4025,10 @@
         <v>3.75</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R20" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4046,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>11</v>
@@ -4061,7 +4061,7 @@
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4073,13 +4073,13 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>21</v>
@@ -4088,10 +4088,10 @@
         <v>17</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
@@ -4136,7 +4136,7 @@
         <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4219,10 +4219,10 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
@@ -4231,7 +4231,7 @@
         <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
@@ -4249,19 +4249,19 @@
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -4303,7 +4303,7 @@
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
         <v>21</v>
@@ -4539,22 +4539,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="I23" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K23" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
@@ -4572,19 +4572,19 @@
         <v>1.36</v>
       </c>
       <c r="R23" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="S23" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T23" t="n">
         <v>3.8</v>
       </c>
       <c r="U23" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W23" t="n">
         <v>40</v>
@@ -4593,31 +4593,31 @@
         <v>90</v>
       </c>
       <c r="Y23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z23" t="n">
         <v>300</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD23" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AE23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
         <v>45</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH23" t="n">
         <v>8.5</v>
@@ -4626,31 +4626,31 @@
         <v>8.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>9.75</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM23" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AO23" t="n">
         <v>45</v>
       </c>
       <c r="AP23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR23" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS23" t="n">
         <v>250</v>
@@ -4659,25 +4659,25 @@
         <v>3.8</v>
       </c>
       <c r="AU23" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV23" t="n">
         <v>40</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AX23" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,22 +765,22 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -932,7 +932,7 @@
         <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
         <v>1.62</v>
@@ -983,7 +983,7 @@
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1019,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1043,7 +1043,7 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>2.2</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
@@ -1135,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.4</v>
@@ -1147,16 +1147,16 @@
         <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
         <v>4.75</v>
@@ -1168,7 +1168,7 @@
         <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1177,16 +1177,16 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD4" t="n">
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1210,10 +1210,10 @@
         <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
         <v>11</v>
       </c>
       <c r="AV4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
         <v>8</v>
@@ -1249,7 +1249,7 @@
         <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1258,7 +1258,7 @@
         <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1305,16 +1305,16 @@
         <v>7.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1323,10 +1323,10 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.53</v>
@@ -1335,10 +1335,10 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>10</v>
@@ -1347,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA5" t="n">
         <v>51</v>
@@ -1359,7 +1359,7 @@
         <v>67</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>8</v>
@@ -1368,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>4.75</v>
@@ -1377,10 +1377,10 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1416,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>3.25</v>
@@ -1434,7 +1434,7 @@
         <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1505,10 +1505,10 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1517,28 +1517,28 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>15</v>
@@ -1547,19 +1547,19 @@
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
         <v>29</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>151</v>
@@ -1574,16 +1574,16 @@
         <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO6" t="n">
         <v>5.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1598,22 +1598,22 @@
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1849,22 +1849,22 @@
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2030,7 +2030,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2057,7 +2057,7 @@
         <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
         <v>17</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2099,7 +2099,7 @@
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -2111,7 +2111,7 @@
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
         <v>3.6</v>
@@ -2206,13 +2206,13 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2251,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2269,7 +2269,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
@@ -2278,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
         <v>26</v>
@@ -2290,7 +2290,7 @@
         <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -2323,7 +2323,7 @@
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
         <v>51</v>
@@ -2373,28 +2373,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2421,16 +2421,16 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
@@ -2445,7 +2445,7 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
@@ -2466,7 +2466,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>201</v>
@@ -2508,10 +2508,10 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
         <v>351</v>
@@ -2558,10 +2558,10 @@
         <v>2.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J12" t="n">
         <v>3.05</v>
@@ -2570,40 +2570,40 @@
         <v>2.02</v>
       </c>
       <c r="L12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W12" t="n">
         <v>9</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
@@ -2615,13 +2615,13 @@
         <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD12" t="n">
         <v>6.1</v>
@@ -2642,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="AJ12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
@@ -2672,28 +2672,28 @@
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB12" t="n">
         <v>300</v>
@@ -2733,22 +2733,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="K13" t="n">
         <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2781,70 +2781,70 @@
         <v>1.85</v>
       </c>
       <c r="W13" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
         <v>10</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC13" t="n">
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
         <v>70</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="n">
         <v>600</v>
       </c>
       <c r="AN13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
         <v>200</v>
@@ -2853,28 +2853,28 @@
         <v>2.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV13" t="n">
         <v>55</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB13" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
@@ -2926,16 +2926,16 @@
         <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>2.65</v>
@@ -2953,67 +2953,67 @@
         <v>2.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
         <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AE14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM14" t="n">
         <v>800</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AO14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP14" t="n">
         <v>35</v>
@@ -3031,19 +3031,19 @@
         <v>2.45</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3052,7 +3052,7 @@
         <v>65</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -3271,34 +3271,34 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.1</v>
       </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -3313,73 +3313,73 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="n">
         <v>34</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>29</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>23</v>
@@ -3409,10 +3409,10 @@
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3655,16 +3655,16 @@
         <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3813,16 +3813,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3864,10 +3864,10 @@
         <v>10</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
         <v>41</v>
@@ -3876,7 +3876,7 @@
         <v>29</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
         <v>9.5</v>
@@ -3891,10 +3891,10 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
@@ -3915,7 +3915,7 @@
         <v>5.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
@@ -3924,7 +3924,7 @@
         <v>67</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
         <v>201</v>
@@ -3942,10 +3942,10 @@
         <v>4</v>
       </c>
       <c r="AX19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
         <v>41</v>
@@ -4001,7 +4001,7 @@
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J20" t="n">
         <v>3.6</v>
@@ -4019,16 +4019,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>1.36</v>
@@ -4043,7 +4043,7 @@
         <v>2.1</v>
       </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X20" t="n">
         <v>15</v>
@@ -4076,7 +4076,7 @@
         <v>8.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>9.5</v>
@@ -4091,7 +4091,7 @@
         <v>26</v>
       </c>
       <c r="AM20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN20" t="n">
         <v>5</v>
@@ -4124,7 +4124,7 @@
         <v>4.33</v>
       </c>
       <c r="AX20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY20" t="n">
         <v>21</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -4201,16 +4201,16 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
         <v>1.4</v>
@@ -4219,25 +4219,25 @@
         <v>2.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA21" t="n">
         <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
       </c>
       <c r="AB21" t="n">
         <v>26</v>
@@ -4249,7 +4249,7 @@
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4258,16 +4258,16 @@
         <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
@@ -4276,16 +4276,16 @@
         <v>251</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
         <v>51</v>
@@ -4306,13 +4306,13 @@
         <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
         <v>81</v>
@@ -4539,52 +4539,52 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="H23" t="n">
         <v>4.85</v>
       </c>
       <c r="I23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="K23" t="n">
         <v>2.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.11</v>
       </c>
       <c r="P23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R23" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="S23" t="n">
         <v>1.23</v>
       </c>
       <c r="T23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
         <v>40</v>
@@ -4593,10 +4593,10 @@
         <v>90</v>
       </c>
       <c r="Y23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AA23" t="n">
         <v>80</v>
@@ -4605,19 +4605,19 @@
         <v>50</v>
       </c>
       <c r="AC23" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>10.75</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF23" t="n">
         <v>45</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
         <v>8.5</v>
@@ -4626,19 +4626,19 @@
         <v>8.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK23" t="n">
         <v>9.75</v>
       </c>
       <c r="AL23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM23" t="n">
         <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
         <v>45</v>
@@ -4656,16 +4656,16 @@
         <v>250</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AU23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV23" t="n">
         <v>40</v>
       </c>
       <c r="AW23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
@@ -4677,10 +4677,10 @@
         <v>14.5</v>
       </c>
       <c r="BA23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC23" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1311,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,22 +1296,22 @@
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
         <v>2.05</v>
@@ -1610,6 +1610,186 @@
         <v>450</v>
       </c>
       <c r="BD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0CEt6wPQ</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Urooba</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
+        <v>40</v>
+      </c>
+      <c r="X7" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1296,16 +1296,16 @@
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
@@ -1323,10 +1323,10 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>12</v>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
@@ -1347,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1383,10 +1383,10 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1395,7 +1395,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>3.25</v>
@@ -1404,10 +1404,10 @@
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1281,46 +1281,46 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.25</v>
       </c>
       <c r="L5" t="n">
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1329,16 +1329,16 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1347,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1377,13 +1377,13 @@
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1398,7 +1398,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX5" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,10 +765,10 @@
         <v>3.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1127,13 +1127,13 @@
         <v>7.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
         <v>2.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R4" t="n">
         <v>1.6</v>
@@ -1142,73 +1142,73 @@
         <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2.07</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W4" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB4" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
         <v>800</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AM4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AO4" t="n">
         <v>32</v>
       </c>
-      <c r="AN4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
       <c r="AP4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ4" t="n">
         <v>200</v>
@@ -1223,28 +1223,28 @@
         <v>2.47</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>60</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>11</v>
@@ -1338,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
         <v>23</v>
@@ -1353,7 +1353,7 @@
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1362,7 +1362,7 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>12</v>
@@ -1383,7 +1383,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX5" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1335,7 +1335,7 @@
         <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>34</v>
@@ -1365,10 +1365,10 @@
         <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1281,16 +1281,16 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.2</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>21</v>
@@ -1422,7 +1422,7 @@
         <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.15</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -771,22 +771,22 @@
         <v>9.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q2" t="n">
         <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
         <v>1.62</v>
@@ -798,25 +798,25 @@
         <v>8.75</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE2" t="n">
         <v>12.5</v>
@@ -828,25 +828,25 @@
         <v>400</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM2" t="n">
         <v>30</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -858,13 +858,13 @@
         <v>55</v>
       </c>
       <c r="AR2" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU2" t="n">
         <v>6.7</v>
@@ -873,19 +873,19 @@
         <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB2" t="n">
         <v>300</v>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H3" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -949,10 +949,10 @@
         <v>6.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -967,34 +967,34 @@
         <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -1006,10 +1006,10 @@
         <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -1021,31 +1021,31 @@
         <v>35</v>
       </c>
       <c r="AM3" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR3" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV3" t="n">
         <v>55</v>
@@ -1054,16 +1054,16 @@
         <v>5.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
         <v>100</v>
       </c>
       <c r="BA3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB3" t="n">
         <v>300</v>
@@ -1311,10 +1311,10 @@
         <v>3.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1434,7 +1434,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,352 +1444,534 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>9.5</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD6" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G8" t="n">
         <v>9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>4.75</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1.32</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K8" t="n">
         <v>2.57</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L8" t="n">
         <v>1.72</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M8" t="n">
         <v>1.02</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N8" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O8" t="n">
         <v>1.11</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P8" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q8" t="n">
         <v>1.37</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R8" t="n">
         <v>2.85</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S8" t="n">
         <v>1.23</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T8" t="n">
         <v>3.75</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U8" t="n">
         <v>1.57</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V8" t="n">
         <v>2.25</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W8" t="n">
         <v>40</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X8" t="n">
         <v>90</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y8" t="n">
         <v>27</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z8" t="n">
         <v>300</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA8" t="n">
         <v>90</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB8" t="n">
         <v>50</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC8" t="n">
         <v>10</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE8" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF8" t="n">
         <v>45</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG8" t="n">
         <v>200</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH8" t="n">
         <v>10.75</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI8" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ8" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK8" t="n">
         <v>10</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL8" t="n">
         <v>9.75</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM8" t="n">
         <v>17.5</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN8" t="n">
         <v>10.25</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO8" t="n">
         <v>45</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP8" t="n">
         <v>32</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ8" t="n">
         <v>300</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR8" t="n">
         <v>200</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS8" t="n">
         <v>250</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT8" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU8" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV8" t="n">
         <v>40</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW8" t="n">
         <v>3.55</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX8" t="n">
         <v>6</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY8" t="n">
         <v>11.75</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ8" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA8" t="n">
         <v>29</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB8" t="n">
         <v>100</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC8" t="n">
         <v>500</v>
       </c>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
         <v>2.67</v>
       </c>
       <c r="K3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -952,7 +952,7 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q3" t="n">
         <v>2.02</v>
@@ -964,7 +964,7 @@
         <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.75</v>
@@ -973,16 +973,16 @@
         <v>1.85</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
@@ -1009,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>12</v>
@@ -1018,16 +1018,16 @@
         <v>55</v>
       </c>
       <c r="AL3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM3" t="n">
         <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP3" t="n">
         <v>17.5</v>
@@ -1036,16 +1036,16 @@
         <v>40</v>
       </c>
       <c r="AR3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS3" t="n">
         <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV3" t="n">
         <v>55</v>
@@ -1057,10 +1057,10 @@
         <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA3" t="n">
         <v>150</v>
@@ -1252,7 +1252,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MJlPfN4K</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1262,41 +1262,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1305,118 +1305,118 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.85</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y5" t="n">
         <v>17</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
         <v>12</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AL5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP5" t="n">
         <v>34</v>
       </c>
-      <c r="AA5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AY5" t="n">
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
         <v>51</v>
@@ -1434,7 +1434,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>MJlPfN4K</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,29 +1444,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>2.2</v>
@@ -1487,16 +1487,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1511,13 +1511,13 @@
         <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>34</v>
@@ -1544,10 +1544,10 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.5</v>
@@ -1592,7 +1592,7 @@
         <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1607,16 +1607,16 @@
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1626,352 +1626,898 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.5</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>9.5</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="AJ7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
         <v>2.5</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
       <c r="AU7" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
         <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD7" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>0CEysv2s</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lunds</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ostersund</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2JJayzWI</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Stockholm Internazionale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G11" t="n">
         <v>9</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H11" t="n">
         <v>4.75</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I11" t="n">
         <v>1.32</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J11" t="n">
         <v>7</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K11" t="n">
         <v>2.57</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L11" t="n">
         <v>1.72</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M11" t="n">
         <v>1.02</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N11" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O11" t="n">
         <v>1.11</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P11" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q11" t="n">
         <v>1.37</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R11" t="n">
         <v>2.85</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S11" t="n">
         <v>1.23</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T11" t="n">
         <v>3.75</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U11" t="n">
         <v>1.57</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V11" t="n">
         <v>2.25</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W11" t="n">
         <v>40</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X11" t="n">
         <v>90</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y11" t="n">
         <v>27</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z11" t="n">
         <v>300</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA11" t="n">
         <v>90</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB11" t="n">
         <v>50</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC11" t="n">
         <v>10</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE11" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF11" t="n">
         <v>45</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG11" t="n">
         <v>200</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH11" t="n">
         <v>10.75</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI11" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ11" t="n">
         <v>8.25</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK11" t="n">
         <v>10</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL11" t="n">
         <v>9.75</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM11" t="n">
         <v>17.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN11" t="n">
         <v>10.25</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO11" t="n">
         <v>45</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP11" t="n">
         <v>32</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ11" t="n">
         <v>300</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR11" t="n">
         <v>200</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS11" t="n">
         <v>250</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT11" t="n">
         <v>3.75</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU11" t="n">
         <v>6.9</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV11" t="n">
         <v>40</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW11" t="n">
         <v>3.55</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX11" t="n">
         <v>6</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY11" t="n">
         <v>11.75</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ11" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA11" t="n">
         <v>29</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB11" t="n">
         <v>100</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC11" t="n">
         <v>500</v>
       </c>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1103,22 +1103,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1127,16 +1127,16 @@
         <v>7.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1145,106 +1145,106 @@
         <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="X4" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM4" t="n">
         <v>32</v>
       </c>
-      <c r="Y4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AI4" t="n">
+      <c r="AN4" t="n">
         <v>6.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP4" t="n">
         <v>35</v>
       </c>
-      <c r="AN4" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>40</v>
-      </c>
       <c r="AQ4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR4" t="n">
         <v>200</v>
       </c>
-      <c r="AR4" t="n">
-        <v>250</v>
-      </c>
       <c r="AS4" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT4" t="n">
         <v>2.47</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -2015,7 +2015,7 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
@@ -2102,7 +2102,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,79 +747,79 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="H2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.1</v>
       </c>
       <c r="AE2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>55</v>
@@ -828,16 +828,16 @@
         <v>400</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
         <v>24</v>
@@ -846,13 +846,13 @@
         <v>30</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>55</v>
@@ -864,16 +864,16 @@
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV2" t="n">
         <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AX2" t="n">
         <v>15.5</v>
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L3" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -949,7 +949,7 @@
         <v>6.45</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>2.7</v>
@@ -964,37 +964,37 @@
         <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X3" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -1006,16 +1006,16 @@
         <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AI3" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
         <v>37</v>
@@ -1024,13 +1024,13 @@
         <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
         <v>40</v>
@@ -1042,7 +1042,7 @@
         <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
         <v>6.6</v>
@@ -1051,19 +1051,19 @@
         <v>55</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ3" t="n">
         <v>110</v>
       </c>
       <c r="BA3" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB3" t="n">
         <v>300</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
@@ -1687,10 +1687,10 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
         <v>9</v>
@@ -1711,7 +1711,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
         <v>401</v>
@@ -1729,7 +1729,7 @@
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1753,13 +1753,13 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT7" t="n">
         <v>2.5</v>
@@ -2039,10 +2039,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2371,19 +2371,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
         <v>1.32</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="L11" t="n">
         <v>1.72</v>
@@ -2404,34 +2404,34 @@
         <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="T11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="U11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="W11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>50</v>
@@ -2440,25 +2440,25 @@
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF11" t="n">
         <v>45</v>
       </c>
       <c r="AG11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2467,49 +2467,49 @@
         <v>9.75</v>
       </c>
       <c r="AM11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AP11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="n">
         <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AY11" t="n">
         <v>11.75</v>
       </c>
       <c r="AZ11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>100</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -925,22 +925,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K3" t="n">
         <v>2.02</v>
       </c>
       <c r="L3" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -973,22 +973,22 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
         <v>7.8</v>
@@ -1006,37 +1006,37 @@
         <v>600</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS3" t="n">
         <v>200</v>
@@ -1051,19 +1051,19 @@
         <v>55</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BA3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB3" t="n">
         <v>300</v>
@@ -1311,10 +1311,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1645,28 +1645,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1675,10 +1675,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -1693,19 +1693,19 @@
         <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
         <v>401</v>
@@ -1729,22 +1729,22 @@
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1753,13 +1753,13 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
         <v>2.5</v>
@@ -1774,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
@@ -2033,16 +2033,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,40 +747,40 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M2" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
         <v>1.03</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S2" t="n">
         <v>1.42</v>
@@ -789,37 +789,37 @@
         <v>2.47</v>
       </c>
       <c r="U2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" t="n">
         <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF2" t="n">
         <v>55</v>
@@ -828,34 +828,34 @@
         <v>400</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK2" t="n">
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR2" t="n">
         <v>90</v>
@@ -867,25 +867,25 @@
         <v>2.45</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV2" t="n">
         <v>60</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BA2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB2" t="n">
         <v>300</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1666,7 +1666,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1687,10 +1687,10 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>
@@ -1699,10 +1699,10 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>29</v>
@@ -1729,7 +1729,7 @@
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1747,10 +1747,10 @@
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -753,19 +753,19 @@
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="J2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.15</v>
       </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.3</v>
-      </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="N2" t="n">
         <v>1.03</v>
@@ -774,10 +774,10 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
         <v>1.82</v>
@@ -789,10 +789,10 @@
         <v>2.47</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>8.75</v>
@@ -816,7 +816,7 @@
         <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE2" t="n">
         <v>12.5</v>
@@ -828,67 +828,67 @@
         <v>400</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
         <v>22</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>60</v>
       </c>
-      <c r="AR2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>65</v>
-      </c>
       <c r="BA2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BB2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
@@ -943,10 +943,10 @@
         <v>4.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>6.45</v>
+        <v>5.8</v>
       </c>
       <c r="O3" t="n">
         <v>1.35</v>
@@ -1281,13 +1281,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
@@ -1296,13 +1296,13 @@
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1347,10 +1347,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1374,13 +1374,13 @@
         <v>12</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM5" t="n">
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO5" t="n">
         <v>29</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX5" t="n">
         <v>8.5</v>
@@ -1416,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
         <v>51</v>
@@ -1493,10 +1493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R6" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1660,13 +1660,13 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1699,7 +1699,7 @@
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1771,7 +1771,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
         <v>13</v>
@@ -1780,10 +1780,10 @@
         <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -2021,16 +2021,16 @@
         <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -2060,7 +2060,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2072,10 +2072,10 @@
         <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2141,7 +2141,7 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YcOmaJ3S</t>
+          <t>p6FUUm68</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,175 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.57</v>
+        <v>3.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.62</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9.5</v>
       </c>
-      <c r="N2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AV2" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QXKu1uZF</t>
+          <t>YcOmaJ3S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -916,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Malut United</t>
+          <t>Madura United</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="X3" t="n">
-        <v>9.25</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AR3" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="n">
         <v>200</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AV3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="BA3" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="BB3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1074,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>QXKu1uZF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1084,7 +1088,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1094,46 +1098,46 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Malut United</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Persis Solo</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>2.55</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L4" t="n">
-        <v>2.25</v>
+        <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
         <v>2.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.62</v>
@@ -1145,106 +1149,106 @@
         <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>11.75</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>9.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>100</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV4" t="n">
         <v>55</v>
       </c>
-      <c r="AB4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>75</v>
-      </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="AX4" t="n">
-        <v>8.25</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="BA4" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1252,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>IVaKgcRk</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1262,122 +1266,122 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.62</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>5.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>6.5</v>
@@ -1386,55 +1390,51 @@
         <v>29</v>
       </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ5" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MJlPfN4K</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,161 +1444,161 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP6" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1616,7 +1616,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>MJlPfN4K</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1626,77 +1626,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>3.1</v>
       </c>
       <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
@@ -1705,100 +1705,100 @@
         <v>34</v>
       </c>
       <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
         <v>29</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
         <v>41</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AG7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
         <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
         <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>51</v>
       </c>
-      <c r="BA7" t="n">
-        <v>81</v>
-      </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,179 +1808,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>151</v>
-      </c>
       <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
         <v>12</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AY8" t="n">
         <v>26</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2000,157 +2000,157 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.1</v>
       </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="W9" t="n">
         <v>10</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>51</v>
       </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2162,7 +2162,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,352 +2172,534 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
         <v>9.5</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Y10" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.75</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>19</v>
       </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
       <c r="AY10" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>8.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>4.9</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1.32</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>6.6</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>2.67</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>1.72</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>1.02</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>1.11</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>1.37</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>2.87</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>1.22</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>3.85</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>1.6</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V12" t="n">
         <v>2.22</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
         <v>35</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X12" t="n">
         <v>80</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y12" t="n">
         <v>25</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z12" t="n">
         <v>250</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA12" t="n">
         <v>80</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB12" t="n">
         <v>50</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>10</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD12" t="n">
         <v>10.75</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE12" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF12" t="n">
         <v>45</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM12" t="n">
         <v>250</v>
       </c>
-      <c r="AH11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AN12" t="n">
         <v>10</v>
       </c>
-      <c r="AL11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>40</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP12" t="n">
         <v>30</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ12" t="n">
         <v>250</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR12" t="n">
         <v>175</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS12" t="n">
         <v>250</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT12" t="n">
         <v>3.85</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU12" t="n">
         <v>7.1</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV12" t="n">
         <v>45</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW12" t="n">
         <v>3.6</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX12" t="n">
         <v>5.9</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY12" t="n">
         <v>11.75</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ12" t="n">
         <v>14</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA12" t="n">
         <v>28</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB12" t="n">
         <v>100</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC12" t="n">
         <v>500</v>
       </c>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M3" t="n">
-        <v>9.5</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -977,22 +977,22 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC3" t="n">
         <v>9.75</v>
@@ -1007,31 +1007,31 @@
         <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL3" t="n">
         <v>29</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>30</v>
       </c>
       <c r="AM3" t="n">
         <v>400</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP3" t="n">
         <v>18.5</v>
@@ -1055,22 +1055,22 @@
         <v>50</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB3" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="J4" t="n">
         <v>2.55</v>
@@ -1134,7 +1134,7 @@
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
@@ -1152,31 +1152,31 @@
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="X4" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.25</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1185,16 +1185,16 @@
         <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="n">
         <v>40</v>
@@ -1206,19 +1206,19 @@
         <v>600</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO4" t="n">
         <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
         <v>37</v>
       </c>
       <c r="AR4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS4" t="n">
         <v>200</v>
@@ -1239,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ4" t="n">
         <v>120</v>
@@ -1481,10 +1481,10 @@
         <v>2.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1675,10 +1675,10 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1848,7 +1848,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1902,13 +1902,13 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>6.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>9.5</v>
@@ -1935,7 +1935,7 @@
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,22 +765,22 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -947,10 +947,10 @@
         <v>3.05</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -1125,10 +1125,10 @@
         <v>4.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>7.18</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
@@ -1493,10 +1493,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
         <v>3.6</v>
@@ -1660,7 +1660,7 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1669,22 +1669,22 @@
         <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1693,13 +1693,13 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y7" t="n">
         <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
       </c>
       <c r="Z7" t="n">
         <v>34</v>
@@ -1711,10 +1711,10 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1723,10 +1723,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
@@ -1735,7 +1735,7 @@
         <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>26</v>
@@ -1762,7 +1762,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1774,7 +1774,7 @@
         <v>4.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>21</v>
@@ -2553,19 +2553,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
         <v>1.32</v>
       </c>
       <c r="J12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.72</v>
@@ -2580,19 +2580,19 @@
         <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="U12" t="n">
         <v>1.6</v>
@@ -2604,40 +2604,40 @@
         <v>35</v>
       </c>
       <c r="X12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="n">
         <v>25</v>
       </c>
       <c r="Z12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
         <v>50</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
         <v>45</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH12" t="n">
         <v>8.75</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2652,13 +2652,13 @@
         <v>250</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO12" t="n">
         <v>40</v>
       </c>
       <c r="AP12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>250</v>
@@ -2670,13 +2670,13 @@
         <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW12" t="n">
         <v>3.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
         <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1315,7 +1315,7 @@
         <v>2.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.62</v>
@@ -1333,40 +1333,40 @@
         <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
         <v>100</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI5" t="n">
         <v>8.25</v>
@@ -1375,7 +1375,7 @@
         <v>12.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
         <v>32</v>
@@ -1387,25 +1387,25 @@
         <v>6.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ5" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR5" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS5" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV5" t="n">
         <v>75</v>
@@ -1414,16 +1414,16 @@
         <v>3.4</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AY5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB5" t="n">
         <v>250</v>
@@ -1857,10 +1857,10 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YcOmaJ3S</t>
+          <t>8GflZ10m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,167 +910,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Madura United</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="H3" t="n">
-        <v>3.15</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R3" t="n">
         <v>2.1</v>
       </c>
-      <c r="L3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.82</v>
-      </c>
       <c r="S3" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
-        <v>2.47</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
+        <v>7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9.75</v>
-      </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.1</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.25</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>12.5</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="AJ3" t="n">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="AO3" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AY3" t="n">
-        <v>19.5</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="BA3" t="n">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QXKu1uZF</t>
+          <t>IVaKgcRk</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1098,43 +1098,43 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Malut United</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Persis Solo</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.05</v>
+        <v>1.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.55</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>7.18</v>
+        <v>7.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
@@ -1149,106 +1149,106 @@
         <v>2.52</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="W4" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.25</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AC4" t="n">
         <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.75</v>
+        <v>5.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>7.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>70</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AP4" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="AQ4" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="AR4" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AS4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AT4" t="n">
         <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>7.9</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AZ4" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="BA4" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="BB4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
@@ -1256,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,175 +1266,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="H5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
         <v>3.4</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.7</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AN5" t="n">
         <v>6.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP5" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AQ5" t="n">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="AR5" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>MJlPfN4K</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,41 +1448,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
@@ -1487,16 +1491,16 @@
         <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1505,100 +1509,100 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
         <v>13</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL6" t="n">
         <v>26</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AM6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
         <v>17</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>51</v>
       </c>
-      <c r="AA6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>101</v>
-      </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1616,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MJlPfN4K</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1626,179 +1630,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
         <v>34</v>
       </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>19</v>
       </c>
       <c r="AL7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY7" t="n">
         <v>26</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
         <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,179 +1812,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>3.6</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
         <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AF8" t="n">
         <v>41</v>
       </c>
-      <c r="AA8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
       <c r="AG8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY8" t="n">
         <v>21</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>26</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2000,31 +2004,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2039,118 +2043,118 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO9" t="n">
         <v>11</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>41</v>
       </c>
-      <c r="AG9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2162,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>YJ1TdZoD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,179 +2176,177 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T10" t="n">
         <v>3.5</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>11</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="U10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT10" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
+      <c r="AU10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX10" t="n">
         <v>12</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>19</v>
-      </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>126</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>0CEt6wPQ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,7 +2356,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2364,342 +2366,162 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Urooba</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>7.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>1.34</v>
       </c>
       <c r="J11" t="n">
-        <v>2.95</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>2.67</v>
       </c>
       <c r="L11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.87</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="S11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W11" t="n">
+        <v>32</v>
+      </c>
+      <c r="X11" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN11" t="n">
         <v>9.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AO11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP11" t="n">
         <v>30</v>
       </c>
-      <c r="AA11" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AQ11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AV11" t="n">
         <v>45</v>
       </c>
-      <c r="AR11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>35</v>
-      </c>
       <c r="AW11" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY11" t="n">
-        <v>15.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ11" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BC11" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>0CEt6wPQ</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Al Urooba</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Al Ain</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W12" t="n">
-        <v>35</v>
-      </c>
-      <c r="X12" t="n">
-        <v>75</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1107,88 +1107,88 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.12</v>
       </c>
       <c r="L4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T4" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z4" t="n">
         <v>100</v>
       </c>
       <c r="AA4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB4" t="n">
         <v>60</v>
       </c>
-      <c r="AB4" t="n">
-        <v>70</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="n">
         <v>5.8</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI4" t="n">
         <v>8.25</v>
@@ -1203,46 +1203,46 @@
         <v>32</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AN4" t="n">
         <v>6.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AQ4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR4" t="n">
         <v>200</v>
       </c>
-      <c r="AR4" t="n">
-        <v>250</v>
-      </c>
       <c r="AS4" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="n">
         <v>3.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AY4" t="n">
         <v>18</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA4" t="n">
         <v>60</v>
@@ -1467,28 +1467,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -1509,28 +1509,28 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
         <v>34</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>10</v>
@@ -1548,7 +1548,7 @@
         <v>8.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>9.5</v>
@@ -1557,13 +1557,13 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN6" t="n">
         <v>5</v>
@@ -1572,13 +1572,13 @@
         <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1587,7 +1587,7 @@
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1596,7 +1596,7 @@
         <v>4.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -2019,13 +2019,13 @@
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -2064,7 +2064,7 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
@@ -2076,10 +2076,10 @@
         <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2103,7 +2103,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>34</v>
@@ -2145,7 +2145,7 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1303,22 +1303,22 @@
         <v>2.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1327,13 +1327,13 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X5" t="n">
         <v>26</v>
@@ -1357,10 +1357,10 @@
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>6.5</v>
@@ -1485,10 +1485,10 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.29</v>
@@ -2378,16 +2378,16 @@
         <v>7.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L11" t="n">
         <v>1.72</v>
@@ -2402,28 +2402,28 @@
         <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="U11" t="n">
         <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X11" t="n">
         <v>70</v>
@@ -2435,16 +2435,16 @@
         <v>200</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>15.5</v>
@@ -2453,13 +2453,13 @@
         <v>45</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI11" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.25</v>
@@ -2468,22 +2468,22 @@
         <v>9.75</v>
       </c>
       <c r="AL11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>9.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR11" t="n">
         <v>175</v>
@@ -2492,13 +2492,13 @@
         <v>250</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="AU11" t="n">
         <v>7.1</v>
       </c>
       <c r="AV11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW11" t="n">
         <v>3.65</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1256,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,47 +1266,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1315,67 +1315,67 @@
         <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.8</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
         <v>6.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1384,61 +1384,57 @@
         <v>351</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
       </c>
       <c r="AQ5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR5" t="n">
         <v>101</v>
       </c>
-      <c r="AR5" t="n">
-        <v>126</v>
-      </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MJlPfN4K</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,161 +1444,161 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.73</v>
       </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="n">
         <v>17</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AK6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP6" t="n">
         <v>34</v>
       </c>
-      <c r="AA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1620,7 +1616,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>MJlPfN4K</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,179 +1626,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
         <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.4</v>
       </c>
-      <c r="P7" t="n">
+      <c r="T7" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="V7" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
         <v>17</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB7" t="n">
         <v>34</v>
       </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI7" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR7" t="n">
         <v>81</v>
       </c>
-      <c r="AR7" t="n">
-        <v>101</v>
-      </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX7" t="n">
         <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,179 +1808,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>2.88</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>21</v>
       </c>
-      <c r="AK8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
         <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
       </c>
       <c r="AZ8" t="n">
         <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,7 +1990,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2004,31 +2000,31 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2043,118 +2039,118 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>51</v>
       </c>
-      <c r="AG9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2166,7 +2162,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,352 +2172,534 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.87</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2.67</v>
+        <v>1.91</v>
       </c>
       <c r="W10" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>19</v>
       </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>12</v>
-      </c>
       <c r="AY10" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>7.9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1.33</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>6.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K12" t="n">
         <v>2.7</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>1.72</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M12" t="n">
         <v>1.02</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>1.11</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>5.7</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>1.35</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R12" t="n">
         <v>2.95</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S12" t="n">
         <v>1.21</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T12" t="n">
         <v>3.95</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U12" t="n">
         <v>1.57</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V12" t="n">
         <v>2.27</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
         <v>35</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X12" t="n">
         <v>70</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y12" t="n">
         <v>24</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z12" t="n">
         <v>200</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA12" t="n">
         <v>70</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB12" t="n">
         <v>45</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC12" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD12" t="n">
         <v>11</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE12" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF12" t="n">
         <v>45</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG12" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH12" t="n">
         <v>9</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI12" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ12" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK12" t="n">
         <v>9.75</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL12" t="n">
         <v>17.5</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM12" t="n">
         <v>200</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO12" t="n">
         <v>37</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP12" t="n">
         <v>29</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ12" t="n">
         <v>200</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR12" t="n">
         <v>175</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS12" t="n">
         <v>250</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT12" t="n">
         <v>3.95</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU12" t="n">
         <v>7.1</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV12" t="n">
         <v>40</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW12" t="n">
         <v>3.65</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX12" t="n">
         <v>6</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY12" t="n">
         <v>11.75</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ12" t="n">
         <v>14</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA12" t="n">
         <v>28</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB12" t="n">
         <v>100</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC12" t="n">
         <v>500</v>
       </c>
-      <c r="BD11" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8GflZ10m</t>
+          <t>jVzhHUy9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.27</v>
+        <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7</v>
-      </c>
-      <c r="X3" t="n">
+      <c r="AP3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="n">
         <v>6</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AX3" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>51</v>
       </c>
       <c r="AY3" t="n">
         <v>51</v>
       </c>
       <c r="AZ3" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>tKT4ESLR</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,175 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.1</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.65</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.22</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
         <v>12</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AH4" t="n">
         <v>29</v>
       </c>
-      <c r="Y4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>7.1</v>
-      </c>
       <c r="AI4" t="n">
-        <v>8.25</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="BB4" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>f9nge664</t>
+          <t>8GflZ10m</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,167 +1274,167 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
         <v>34</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
       </c>
       <c r="AN5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO5" t="n">
         <v>6</v>
       </c>
-      <c r="AO5" t="n">
-        <v>23</v>
-      </c>
       <c r="AP5" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1434,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>IVaKgcRk</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,122 +1452,122 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
         <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG6" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AN6" t="n">
         <v>6.5</v>
@@ -1568,55 +1576,51 @@
         <v>29</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AQ6" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AR6" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.52</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MJlPfN4K</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1626,179 +1630,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>11</v>
-      </c>
       <c r="AI7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1813,138 +1813,138 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.44</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
       <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
         <v>41</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>34</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AP8" t="n">
         <v>34</v>
       </c>
       <c r="AQ8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="n">
         <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1953,34 +1953,34 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,179 +1990,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>23</v>
-      </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>21</v>
       </c>
-      <c r="AK9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL9" t="n">
+      <c r="AP9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
         <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2182,31 +2182,31 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -2221,118 +2221,118 @@
         <v>3.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2344,7 +2344,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,352 +2354,534 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.87</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X11" t="n">
         <v>9.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Y11" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
         <v>29</v>
       </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>150</v>
+        <v>251</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB11" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD11" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="G13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M12" t="n">
+      <c r="I13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.02</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N13" t="n">
         <v>10</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O13" t="n">
         <v>1.11</v>
       </c>
-      <c r="P12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.35</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="R13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.57</v>
       </c>
-      <c r="V12" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="V13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W13" t="n">
         <v>35</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X13" t="n">
         <v>70</v>
       </c>
-      <c r="Y12" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
         <v>200</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA13" t="n">
         <v>70</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AB13" t="n">
         <v>45</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AC13" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AD13" t="n">
         <v>11</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AE13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AF13" t="n">
         <v>45</v>
       </c>
-      <c r="AG12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AG13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH13" t="n">
         <v>9</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AI13" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AJ13" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM12" t="n">
+      <c r="AK13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>200</v>
       </c>
-      <c r="AN12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP12" t="n">
+      <c r="AR13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="BA13" t="n">
         <v>29</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>200</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC12" t="n">
+      <c r="BB13" t="n">
+        <v>110</v>
+      </c>
+      <c r="BC13" t="n">
         <v>500</v>
       </c>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -953,10 +953,10 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>3.4</v>
@@ -1129,16 +1129,16 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1323,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>1.65</v>
@@ -1483,16 +1483,16 @@
         <v>5.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L6" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
@@ -1510,25 +1510,25 @@
         <v>1.39</v>
       </c>
       <c r="T6" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U6" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W6" t="n">
         <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y6" t="n">
         <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
         <v>55</v>
@@ -1540,10 +1540,10 @@
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE6" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF6" t="n">
         <v>100</v>
@@ -1552,13 +1552,13 @@
         <v>5.8</v>
       </c>
       <c r="AH6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>8.25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>14.5</v>
@@ -1567,16 +1567,16 @@
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
         <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ6" t="n">
         <v>175</v>
@@ -1588,25 +1588,25 @@
         <v>450</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW6" t="n">
         <v>3.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
         <v>60</v>
@@ -1857,10 +1857,10 @@
         <v>3.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2373,19 +2373,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>4.33</v>
@@ -2424,7 +2424,7 @@
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2433,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
@@ -2463,10 +2463,10 @@
         <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>251</v>
@@ -2481,7 +2481,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2511,7 +2511,7 @@
         <v>67</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>fgWKXlPr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,167 +1452,167 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R6" t="n">
         <v>2.15</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AR6" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA6" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>f9nge664</t>
+          <t>zPs4uVuR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,77 +1630,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
         <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>13</v>
@@ -1709,55 +1709,55 @@
         <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR7" t="n">
         <v>101</v>
@@ -1766,7 +1766,7 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>8.5</v>
@@ -1775,10 +1775,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1792,13 +1792,17 @@
       <c r="BB7" t="n">
         <v>201</v>
       </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>IVaKgcRk</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,179 +1812,175 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH8" t="n">
         <v>7</v>
       </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>6.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ8" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AR8" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>51</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,77 +1990,77 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.1</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.44</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
@@ -2075,43 +2075,43 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
         <v>6</v>
       </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>451</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2123,25 +2123,25 @@
         <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2150,19 +2150,15 @@
         <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>151</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,161 +2168,161 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.2</v>
       </c>
       <c r="L10" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK10" t="n">
         <v>15</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AL10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
         <v>67</v>
       </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
       <c r="AW10" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
         <v>51</v>
@@ -2335,16 +2331,16 @@
         <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2359,174 +2355,174 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
         <v>7.5</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="n">
         <v>9</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AI11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
         <v>9</v>
       </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
         <v>26</v>
       </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AZ11" t="n">
         <v>41</v>
       </c>
-      <c r="AK11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
         <v>251</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2536,177 +2532,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9.5</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN12" t="n">
         <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.9</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0CEt6wPQ</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2716,172 +2714,534 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Urooba</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>1.34</v>
+        <v>3.7</v>
       </c>
       <c r="J13" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.67</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.75</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0CEt6wPQ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Al Urooba</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.11</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P15" t="n">
         <v>5.6</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q15" t="n">
         <v>1.35</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R15" t="n">
         <v>2.92</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S15" t="n">
         <v>1.22</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T15" t="n">
         <v>3.85</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U15" t="n">
         <v>1.57</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V15" t="n">
         <v>2.25</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W15" t="n">
         <v>35</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X15" t="n">
         <v>70</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y15" t="n">
         <v>23</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z15" t="n">
         <v>200</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA15" t="n">
         <v>70</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB15" t="n">
         <v>45</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC15" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD15" t="n">
         <v>11</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE15" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF15" t="n">
         <v>45</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG15" t="n">
         <v>11.25</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH15" t="n">
         <v>9</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI15" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ15" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK15" t="n">
         <v>10</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL15" t="n">
         <v>18</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM15" t="n">
         <v>250</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN15" t="n">
         <v>9.25</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO15" t="n">
         <v>37</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP15" t="n">
         <v>29</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ15" t="n">
         <v>200</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR15" t="n">
         <v>175</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS15" t="n">
         <v>250</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT15" t="n">
         <v>3.85</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU15" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV15" t="n">
         <v>45</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW15" t="n">
         <v>3.65</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX15" t="n">
         <v>6</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY15" t="n">
         <v>12</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ15" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA15" t="n">
         <v>29</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB15" t="n">
         <v>110</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC15" t="n">
         <v>500</v>
       </c>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,40 +1471,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1522,7 +1522,7 @@
         <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
         <v>13</v>
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>7.5</v>
@@ -1564,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>151</v>
@@ -1600,10 +1600,10 @@
         <v>4</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>29</v>
@@ -1612,7 +1612,7 @@
         <v>41</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1802,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>nFe0EWXO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,175 +1812,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W8" t="n">
-        <v>12</v>
-      </c>
-      <c r="X8" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AX8" t="n">
-        <v>7.9</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>f9nge664</t>
+          <t>IVaKgcRk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,167 +1994,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="J9" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L9" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="W9" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>13</v>
       </c>
-      <c r="Z9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ9" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AX9" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AZ9" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
@@ -2158,7 +2162,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2168,41 +2172,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2217,10 +2221,10 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2229,55 +2233,55 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
         <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -2286,61 +2290,57 @@
         <v>351</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR10" t="n">
         <v>101</v>
       </c>
-      <c r="AR10" t="n">
-        <v>126</v>
-      </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2355,138 +2355,138 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
         <v>1.44</v>
       </c>
-      <c r="P11" t="n">
+      <c r="T11" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="n">
         <v>17</v>
       </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
       <c r="Z11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA11" t="n">
         <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="n">
         <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2495,34 +2495,34 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2532,179 +2532,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>2.88</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
         <v>34</v>
       </c>
-      <c r="AA12" t="n">
-        <v>23</v>
-      </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>21</v>
       </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY12" t="n">
         <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2724,157 +2724,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
         <v>10</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X13" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>51</v>
       </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>34</v>
-      </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY13" t="n">
         <v>21</v>
       </c>
-      <c r="AY13" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2886,7 +2886,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2896,352 +2896,534 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.7</v>
       </c>
-      <c r="I14" t="n">
-        <v>2.45</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.87</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>2.67</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>10.75</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY14" t="n">
         <v>29</v>
       </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC14" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="W15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G16" t="n">
         <v>7.6</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>5</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>1.34</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J16" t="n">
         <v>6.1</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K16" t="n">
         <v>2.67</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>1.75</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M16" t="n">
         <v>1.02</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N16" t="n">
         <v>10</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O16" t="n">
         <v>1.11</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P16" t="n">
         <v>5.6</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q16" t="n">
         <v>1.35</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R16" t="n">
         <v>2.92</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S16" t="n">
         <v>1.22</v>
       </c>
-      <c r="T15" t="n">
+      <c r="T16" t="n">
         <v>3.85</v>
       </c>
-      <c r="U15" t="n">
+      <c r="U16" t="n">
         <v>1.57</v>
       </c>
-      <c r="V15" t="n">
+      <c r="V16" t="n">
         <v>2.25</v>
       </c>
-      <c r="W15" t="n">
+      <c r="W16" t="n">
         <v>35</v>
       </c>
-      <c r="X15" t="n">
+      <c r="X16" t="n">
         <v>70</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Y16" t="n">
         <v>23</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="Z16" t="n">
         <v>200</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AA16" t="n">
         <v>70</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AB16" t="n">
         <v>45</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AC16" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AD16" t="n">
         <v>11</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AE16" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AF16" t="n">
         <v>45</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AG16" t="n">
         <v>11.25</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AH16" t="n">
         <v>9</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AI16" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AJ16" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AK16" t="n">
         <v>10</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AL16" t="n">
         <v>18</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM16" t="n">
         <v>250</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AN16" t="n">
         <v>9.25</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AO16" t="n">
         <v>37</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AP16" t="n">
         <v>29</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AQ16" t="n">
         <v>200</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AR16" t="n">
         <v>175</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AS16" t="n">
         <v>250</v>
       </c>
-      <c r="AT15" t="n">
+      <c r="AT16" t="n">
         <v>3.85</v>
       </c>
-      <c r="AU15" t="n">
+      <c r="AU16" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV16" t="n">
         <v>45</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AW16" t="n">
         <v>3.65</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AX16" t="n">
         <v>6</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="AY16" t="n">
         <v>12</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="AZ16" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BA16" t="n">
         <v>29</v>
       </c>
-      <c r="BB15" t="n">
+      <c r="BB16" t="n">
         <v>110</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC16" t="n">
         <v>500</v>
       </c>
-      <c r="BD15" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -953,22 +953,22 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.73</v>
       </c>
-      <c r="P3" t="n">
+      <c r="T3" t="n">
         <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.05</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -1323,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1501,10 +1501,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -2013,145 +2013,145 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="J9" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AI9" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP9" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR9" t="n">
         <v>175</v>
       </c>
-      <c r="AR9" t="n">
-        <v>200</v>
-      </c>
       <c r="AS9" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV9" t="n">
         <v>75</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BA9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2698,7 +2698,7 @@
         <v>126</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
@@ -3100,37 +3100,37 @@
         <v>2.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L15" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="S15" t="n">
         <v>1.26</v>
@@ -3142,55 +3142,55 @@
         <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W15" t="n">
+        <v>15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG15" t="n">
         <v>13.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14</v>
-      </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>150</v>
@@ -3199,16 +3199,16 @@
         <v>5.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR15" t="n">
         <v>50</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>55</v>
       </c>
       <c r="AS15" t="n">
         <v>120</v>
@@ -3223,19 +3223,19 @@
         <v>35</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX15" t="n">
         <v>12.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ15" t="n">
         <v>45</v>
       </c>
       <c r="BA15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB15" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -783,10 +783,10 @@
         <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -801,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,13 +828,13 @@
         <v>5.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -864,7 +864,7 @@
         <v>401</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -882,7 +882,7 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
         <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1132,7 +1132,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1141,16 +1141,16 @@
         <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
         <v>2.25</v>
@@ -1159,7 +1159,7 @@
         <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
         <v>6</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>8</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
         <v>2.5</v>
@@ -1329,19 +1329,19 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
@@ -1371,7 +1371,7 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>51</v>
@@ -1398,10 +1398,10 @@
         <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1410,19 +1410,19 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
         <v>51</v>
@@ -1620,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>zPs4uVuR</t>
+          <t>jLPTVSge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,179 +1630,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.2</v>
       </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
         <v>17</v>
       </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AH7" t="n">
         <v>41</v>
       </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK7" t="n">
         <v>51</v>
       </c>
-      <c r="AG7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>19</v>
-      </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>351</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nFe0EWXO</t>
+          <t>zPs4uVuR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,167 +1808,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
         <v>19</v>
       </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>34</v>
       </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
       <c r="AM8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1984,7 +1980,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>nFe0EWXO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,175 +1990,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>1.82</v>
-      </c>
       <c r="J9" t="n">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>2.37</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.07</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>10.25</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.8</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>f9nge664</t>
+          <t>IVaKgcRk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,167 +2172,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Semen Padang</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.7</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH10" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI10" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX10" t="n">
         <v>9</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>11</v>
-      </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="inlineStr"/>
       <c r="BD10" t="inlineStr"/>
@@ -2340,7 +2340,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2350,59 +2350,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2411,55 +2411,55 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>6.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>29</v>
@@ -2468,61 +2468,57 @@
         <v>351</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
       </c>
       <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
         <v>101</v>
       </c>
-      <c r="AR11" t="n">
-        <v>126</v>
-      </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2537,138 +2533,138 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.5</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="J12" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.44</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="n">
         <v>17</v>
       </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
       <c r="Z12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA12" t="n">
         <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
         <v>301</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2677,34 +2673,34 @@
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2714,167 +2710,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
         <v>34</v>
       </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>451</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
         <v>21</v>
       </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
+      <c r="AP13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
         <v>26</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>21</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
         <v>126</v>
@@ -2886,7 +2882,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2896,7 +2892,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2906,157 +2902,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>51</v>
       </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>34</v>
-      </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY14" t="n">
         <v>21</v>
       </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
@@ -3068,7 +3064,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3078,352 +3074,534 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>4.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>2.57</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
         <v>2.75</v>
       </c>
-      <c r="W15" t="n">
-        <v>15</v>
-      </c>
-      <c r="X15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY15" t="n">
         <v>29</v>
       </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA15" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
-        <v>400</v>
-      </c>
-      <c r="BD15" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>15</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>400</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G17" t="n">
         <v>7.6</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>5</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>1.34</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>6.1</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K17" t="n">
         <v>2.67</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>1.75</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M17" t="n">
         <v>1.02</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N17" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O17" t="n">
         <v>1.11</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P17" t="n">
         <v>5.6</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q17" t="n">
         <v>1.35</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R17" t="n">
         <v>2.92</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S17" t="n">
         <v>1.22</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T17" t="n">
         <v>3.85</v>
       </c>
-      <c r="U16" t="n">
+      <c r="U17" t="n">
         <v>1.57</v>
       </c>
-      <c r="V16" t="n">
+      <c r="V17" t="n">
         <v>2.25</v>
       </c>
-      <c r="W16" t="n">
+      <c r="W17" t="n">
         <v>35</v>
       </c>
-      <c r="X16" t="n">
+      <c r="X17" t="n">
         <v>70</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Y17" t="n">
         <v>23</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="Z17" t="n">
         <v>200</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AA17" t="n">
         <v>70</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AB17" t="n">
         <v>45</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AC17" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AD17" t="n">
         <v>11</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AE17" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AF17" t="n">
         <v>45</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AG17" t="n">
         <v>11.25</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AH17" t="n">
         <v>9</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AI17" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AJ17" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AK17" t="n">
         <v>10</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AL17" t="n">
         <v>18</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM17" t="n">
         <v>250</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AN17" t="n">
         <v>9.25</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AO17" t="n">
         <v>37</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AP17" t="n">
         <v>29</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AQ17" t="n">
         <v>200</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AR17" t="n">
         <v>175</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AS17" t="n">
         <v>250</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AT17" t="n">
         <v>3.85</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AU17" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AV17" t="n">
         <v>45</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AW17" t="n">
         <v>3.65</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AX17" t="n">
         <v>6</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AY17" t="n">
         <v>12</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="AZ17" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA17" t="n">
         <v>29</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BB17" t="n">
         <v>110</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BC17" t="n">
         <v>500</v>
       </c>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -1129,22 +1129,22 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8GflZ10m</t>
+          <t>b9JYT7LE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,65 +1274,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.5</v>
-      </c>
-      <c r="L5" t="n">
-        <v>9</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>13</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1341,28 +1341,28 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1371,78 +1371,82 @@
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="n">
         <v>51</v>
       </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>501</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="AX5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA5" t="n">
         <v>51</v>
       </c>
-      <c r="AY5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>251</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fgWKXlPr</t>
+          <t>8GflZ10m</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1462,157 +1466,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.8</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
         <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>81</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX6" t="n">
         <v>51</v>
       </c>
-      <c r="AW6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="BA6" t="n">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1620,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jLPTVSge</t>
+          <t>fgWKXlPr</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,7 +1634,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1640,157 +1644,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>21</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
-      </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>4</v>
       </c>
       <c r="AX7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA7" t="n">
         <v>41</v>
       </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1798,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zPs4uVuR</t>
+          <t>jLPTVSge</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,179 +1812,175 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.2</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
         <v>17</v>
       </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
+      <c r="AH8" t="n">
         <v>41</v>
       </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AK8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="AO8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AP8" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>126</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nFe0EWXO</t>
+          <t>zPs4uVuR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,167 +1990,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.5</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
         <v>19</v>
       </c>
-      <c r="AF9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AL9" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>67</v>
       </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2162,7 +2162,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IVaKgcRk</t>
+          <t>nFe0EWXO</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,170 +2172,174 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Semen Padang</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PSM Makassar</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.15</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
         <v>3.3</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.83</v>
-      </c>
       <c r="J10" t="n">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>2.37</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>8.380000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.07</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>9.75</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO10" t="n">
         <v>15</v>
       </c>
-      <c r="AK10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>24</v>
-      </c>
       <c r="AP10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>450</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2941,10 +2945,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3275,13 +3279,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H16" t="n">
         <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J16" t="n">
         <v>2.8</v>
@@ -3290,7 +3294,7 @@
         <v>2.42</v>
       </c>
       <c r="L16" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3302,37 +3306,37 @@
         <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.24</v>
       </c>
       <c r="T16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="U16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V16" t="n">
         <v>2.8</v>
       </c>
       <c r="W16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
         <v>16.5</v>
@@ -3350,25 +3354,25 @@
         <v>10.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
         <v>17.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM16" t="n">
         <v>120</v>
@@ -3392,7 +3396,7 @@
         <v>110</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AU16" t="n">
         <v>6</v>
@@ -3401,25 +3405,25 @@
         <v>32</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AX16" t="n">
         <v>12.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ16" t="n">
         <v>45</v>
       </c>
       <c r="BA16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC16" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1484,10 +1484,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
         <v>9.5</v>
@@ -1505,10 +1505,10 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,13 +1517,13 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>9.5</v>
@@ -1601,7 +1601,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
         <v>51</v>
@@ -1683,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1849,10 +1849,10 @@
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -2039,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2733,52 +2733,52 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L13" t="n">
         <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
         <v>8.5</v>
@@ -2799,13 +2799,13 @@
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
         <v>6</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2823,19 +2823,19 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN13" t="n">
         <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
@@ -2844,13 +2844,13 @@
         <v>81</v>
       </c>
       <c r="AR13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -2862,16 +2862,16 @@
         <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
         <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
         <v>251</v>
@@ -2880,7 +2880,7 @@
         <v>126</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2951,7 +2951,7 @@
         <v>1.9</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
         <v>3</v>
@@ -3106,10 +3106,10 @@
         <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>4.33</v>
@@ -3118,7 +3118,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>
@@ -3133,19 +3133,19 @@
         <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T15" t="n">
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
@@ -3157,13 +3157,13 @@
         <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3279,25 +3279,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="K16" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="L16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>9.75</v>
@@ -3315,28 +3315,28 @@
         <v>2.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="U16" t="n">
         <v>1.38</v>
       </c>
       <c r="V16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9.75</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
         <v>16.5</v>
@@ -3348,25 +3348,25 @@
         <v>9.75</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
         <v>17.5</v>
@@ -3384,19 +3384,19 @@
         <v>11.75</v>
       </c>
       <c r="AP16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ16" t="n">
         <v>40</v>
       </c>
       <c r="AR16" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS16" t="n">
         <v>110</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU16" t="n">
         <v>6</v>
@@ -3405,13 +3405,13 @@
         <v>32</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AX16" t="n">
         <v>12.5</v>
       </c>
       <c r="AY16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
         <v>45</v>
@@ -3420,7 +3420,7 @@
         <v>50</v>
       </c>
       <c r="BB16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC16" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,22 +765,22 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>3.1</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1493,10 +1493,10 @@
         <v>9.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.25</v>
@@ -1505,7 +1505,7 @@
         <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
         <v>2</v>
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
         <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1683,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1749,7 +1749,7 @@
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1791,7 +1791,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB7" t="n">
         <v>126</v>
@@ -2039,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2191,22 +2191,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2239,19 +2239,19 @@
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2266,22 +2266,22 @@
         <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2290,19 +2290,19 @@
         <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2311,16 +2311,16 @@
         <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2344,7 +2344,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>f9nge664</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,41 +2354,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2397,132 +2397,136 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.1</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
         <v>10</v>
       </c>
-      <c r="X11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="n">
         <v>41</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>34</v>
       </c>
-      <c r="AB11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>81</v>
-      </c>
       <c r="AR11" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2532,59 +2536,59 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2593,55 +2597,55 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
         <v>6.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
@@ -2650,61 +2654,57 @@
         <v>351</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
         <v>101</v>
       </c>
-      <c r="AR12" t="n">
-        <v>126</v>
-      </c>
       <c r="AS12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
         <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2719,90 +2719,90 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="X13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="n">
         <v>17</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
       <c r="Z13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA13" t="n">
         <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
       </c>
       <c r="AB13" t="n">
         <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
@@ -2811,46 +2811,46 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
       </c>
       <c r="AQ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR13" t="n">
         <v>126</v>
       </c>
       <c r="AS13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -2859,34 +2859,34 @@
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>29</v>
       </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2896,179 +2896,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.2</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V14" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
+        <v>8</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="n">
         <v>10</v>
       </c>
-      <c r="X14" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AJ14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>23</v>
       </c>
-      <c r="AB14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AP14" t="n">
         <v>41</v>
       </c>
-      <c r="AG14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AQ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ14" t="n">
         <v>41</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC14" t="n">
         <v>126</v>
       </c>
       <c r="BD14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3088,157 +3088,157 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V15" t="n">
         <v>2.1</v>
       </c>
-      <c r="L15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
-      </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
         <v>21</v>
       </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
@@ -3250,7 +3250,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>YJ1TdZoD</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3260,172 +3260,174 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.77</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>2.67</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>2.82</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
       </c>
-      <c r="X16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY16" t="n">
         <v>29</v>
       </c>
-      <c r="AA16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>45</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>15</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="BA16" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="BC16" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,7 +1255,7 @@
         <v>501</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1490,7 +1490,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1499,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.36</v>
@@ -1517,13 +1517,13 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
@@ -1541,10 +1541,10 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1553,7 +1553,7 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1565,7 +1565,7 @@
         <v>151</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
         <v>81</v>
@@ -1583,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -2191,16 +2191,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2278,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
@@ -2290,13 +2290,13 @@
         <v>201</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -2344,7 +2344,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6cNu9v1t</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,47 +2354,47 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.6</v>
       </c>
-      <c r="I11" t="n">
-        <v>4.75</v>
-      </c>
       <c r="J11" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2403,10 +2403,10 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2415,25 +2415,25 @@
         <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2442,46 +2442,46 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
-        <v>501</v>
+        <v>1250</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
@@ -2493,40 +2493,40 @@
         <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC11" t="n">
         <v>126</v>
       </c>
-      <c r="BA11" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
       <c r="BD11" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>f9nge664</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2536,41 +2536,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2579,132 +2579,136 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.1</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
         <v>10</v>
       </c>
-      <c r="X12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AH12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>34</v>
       </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+        <v>401</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I33MmJIN</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2714,59 +2718,59 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Botosani</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.75</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2775,55 +2779,55 @@
         <v>2.63</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AF13" t="n">
         <v>51</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>67</v>
       </c>
       <c r="AG13" t="n">
         <v>6.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>29</v>
@@ -2832,61 +2836,57 @@
         <v>351</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
         <v>34</v>
       </c>
       <c r="AQ13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR13" t="n">
         <v>101</v>
       </c>
-      <c r="AR13" t="n">
-        <v>126</v>
-      </c>
       <c r="AS13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
         <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>b1wxbpIb</t>
+          <t>I33MmJIN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2901,174 +2901,174 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>FC Botosani</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.44</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="n">
         <v>17</v>
       </c>
-      <c r="Y14" t="n">
-        <v>15</v>
-      </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
         <v>41</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR14" t="n">
         <v>126</v>
       </c>
       <c r="AS14" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>29</v>
       </c>
-      <c r="AZ14" t="n">
-        <v>41</v>
-      </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>b1wxbpIb</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3078,179 +3078,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L15" t="n">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
         <v>10</v>
       </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AJ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO15" t="n">
         <v>23</v>
       </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AP15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>401</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU15" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2JJayzWI</t>
+          <t>0CEysv2s</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3270,157 +3270,157 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.1</v>
       </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>51</v>
       </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>34</v>
-      </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY16" t="n">
         <v>21</v>
       </c>
-      <c r="AY16" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3432,182 +3432,364 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2JJayzWI</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Stockholm Internazionale</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>0CEt6wPQ</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>21/11/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Al Urooba</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>7.6</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1.34</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>6.1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K18" t="n">
         <v>2.67</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>1.75</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M18" t="n">
         <v>1.02</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N18" t="n">
         <v>10</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O18" t="n">
         <v>1.11</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P18" t="n">
         <v>5.6</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q18" t="n">
         <v>1.35</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R18" t="n">
         <v>2.92</v>
       </c>
-      <c r="S17" t="n">
+      <c r="S18" t="n">
         <v>1.22</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T18" t="n">
         <v>3.85</v>
       </c>
-      <c r="U17" t="n">
+      <c r="U18" t="n">
         <v>1.57</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V18" t="n">
         <v>2.25</v>
       </c>
-      <c r="W17" t="n">
+      <c r="W18" t="n">
         <v>35</v>
       </c>
-      <c r="X17" t="n">
+      <c r="X18" t="n">
         <v>70</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Y18" t="n">
         <v>23</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z18" t="n">
         <v>200</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA18" t="n">
         <v>70</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AB18" t="n">
         <v>45</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AC18" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AD18" t="n">
         <v>11</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AE18" t="n">
         <v>15.5</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AF18" t="n">
         <v>45</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG18" t="n">
         <v>11.25</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AH18" t="n">
         <v>9</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AI18" t="n">
         <v>8.75</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AJ18" t="n">
         <v>10.25</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK18" t="n">
         <v>10</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL18" t="n">
         <v>18</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AM18" t="n">
         <v>250</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AN18" t="n">
         <v>9.25</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AO18" t="n">
         <v>37</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AP18" t="n">
         <v>29</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AQ18" t="n">
         <v>200</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AR18" t="n">
         <v>175</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AS18" t="n">
         <v>250</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT18" t="n">
         <v>3.85</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU18" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV18" t="n">
         <v>45</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW18" t="n">
         <v>3.65</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AX18" t="n">
         <v>6</v>
       </c>
-      <c r="AY17" t="n">
+      <c r="AY18" t="n">
         <v>12</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ18" t="n">
         <v>14.5</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA18" t="n">
         <v>29</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB18" t="n">
         <v>110</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC18" t="n">
         <v>500</v>
       </c>
-      <c r="BD17" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1296,19 +1296,19 @@
         <v>8.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>7.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1329,10 +1329,10 @@
         <v>1.7</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1359,7 +1359,7 @@
         <v>67</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
@@ -1386,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>1250</v>
@@ -1398,7 +1398,7 @@
         <v>41</v>
       </c>
       <c r="AP5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ5" t="n">
         <v>201</v>
@@ -1410,7 +1410,7 @@
         <v>501</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>1.73</v>
@@ -1505,25 +1505,25 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
         <v>10</v>
@@ -1592,7 +1592,7 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
@@ -1653,13 +1653,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
         <v>4.5</v>
@@ -1668,7 +1668,7 @@
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1695,10 +1695,10 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -1731,10 +1731,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>8.5</v>
@@ -1758,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1773,7 +1773,7 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1782,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
@@ -2555,16 +2555,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
@@ -2573,10 +2573,10 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2621,7 +2621,7 @@
         <v>34</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2657,7 +2657,7 @@
         <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
@@ -2666,7 +2666,7 @@
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>201</v>
@@ -2675,7 +2675,7 @@
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
@@ -2915,40 +2915,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2963,28 +2963,28 @@
         <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="n">
         <v>51</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
       </c>
       <c r="AC14" t="n">
         <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>19</v>
@@ -2993,16 +2993,16 @@
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI14" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -3014,22 +3014,22 @@
         <v>351</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT14" t="n">
         <v>2.63</v>
@@ -3041,16 +3041,16 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3100,13 +3100,13 @@
         <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
         <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>1.91</v>
@@ -3133,16 +3133,16 @@
         <v>1.44</v>
       </c>
       <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.62</v>
       </c>
       <c r="W15" t="n">
         <v>8</v>
@@ -3169,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
@@ -3178,7 +3178,7 @@
         <v>5.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3208,13 +3208,13 @@
         <v>81</v>
       </c>
       <c r="AR15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS15" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
@@ -3244,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -750,7 +750,7 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -783,10 +783,10 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -795,7 +795,7 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -819,7 +819,7 @@
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -864,7 +864,7 @@
         <v>401</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -1311,16 +1311,16 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -2090,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
         <v>9.5</v>
@@ -2108,7 +2108,7 @@
         <v>351</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>21</v>
@@ -2138,7 +2138,7 @@
         <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -2206,7 +2206,7 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2239,19 +2239,19 @@
         <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2915,13 +2915,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2933,22 +2933,22 @@
         <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
         <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>1.91</v>
@@ -3115,34 +3115,34 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
         <v>8</v>
@@ -3163,13 +3163,13 @@
         <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
@@ -3178,7 +3178,7 @@
         <v>5.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3208,13 +3208,13 @@
         <v>81</v>
       </c>
       <c r="AR15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS15" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
@@ -3244,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3279,22 +3279,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -3315,16 +3315,16 @@
         <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
         <v>10</v>
@@ -3336,7 +3336,7 @@
         <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
         <v>23</v>
@@ -3366,16 +3366,16 @@
         <v>9.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="n">
         <v>5</v>
@@ -3396,28 +3396,28 @@
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3643,19 +3643,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
         <v>1.34</v>
       </c>
       <c r="J18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="L18" t="n">
         <v>1.75</v>
@@ -3679,10 +3679,10 @@
         <v>2.92</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="U18" t="n">
         <v>1.57</v>
@@ -3691,19 +3691,19 @@
         <v>2.25</v>
       </c>
       <c r="W18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y18" t="n">
         <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
         <v>45</v>
@@ -3712,7 +3712,7 @@
         <v>10.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE18" t="n">
         <v>15.5</v>
@@ -3721,7 +3721,7 @@
         <v>45</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
         <v>9</v>
@@ -3748,19 +3748,19 @@
         <v>37</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
         <v>200</v>
       </c>
       <c r="AR18" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS18" t="n">
         <v>250</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AU18" t="n">
         <v>7.2</v>
@@ -3778,13 +3778,13 @@
         <v>12</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BC18" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,22 +765,22 @@
         <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1683,22 +1683,22 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -1722,19 +1722,19 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
         <v>8.5</v>
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1758,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1770,10 +1770,10 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1782,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -1849,10 +1849,10 @@
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1861,10 +1861,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2915,13 +2915,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2933,10 +2933,10 @@
         <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2972,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
         <v>41</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
@@ -3041,10 +3041,10 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
@@ -3100,19 +3100,19 @@
         <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
         <v>2.5</v>
@@ -3133,37 +3133,37 @@
         <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
       </c>
       <c r="AA15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB15" t="n">
         <v>41</v>
       </c>
-      <c r="AB15" t="n">
-        <v>51</v>
-      </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3172,16 +3172,16 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH15" t="n">
         <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>19</v>
@@ -3190,7 +3190,7 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>501</v>
@@ -3202,7 +3202,7 @@
         <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ15" t="n">
         <v>81</v>
@@ -3211,25 +3211,25 @@
         <v>126</v>
       </c>
       <c r="AS15" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
         <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
@@ -3238,13 +3238,13 @@
         <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3309,10 +3309,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3643,19 +3643,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="L18" t="n">
         <v>1.75</v>
@@ -3679,16 +3679,16 @@
         <v>2.92</v>
       </c>
       <c r="S18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="T18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="U18" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="W18" t="n">
         <v>32</v>
@@ -3712,7 +3712,7 @@
         <v>10.25</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>15.5</v>
@@ -3724,19 +3724,19 @@
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
       </c>
       <c r="AL18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM18" t="n">
         <v>250</v>
@@ -3748,22 +3748,22 @@
         <v>37</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>200</v>
       </c>
       <c r="AR18" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS18" t="n">
         <v>250</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV18" t="n">
         <v>45</v>
@@ -3772,13 +3772,13 @@
         <v>3.65</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="BA18" t="n">
         <v>28</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -932,19 +932,19 @@
         <v>1.95</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -953,31 +953,31 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
@@ -989,22 +989,22 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>8</v>
@@ -1013,16 +1013,16 @@
         <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>51</v>
       </c>
       <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
         <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
@@ -1034,22 +1034,22 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>101</v>
@@ -1058,13 +1058,13 @@
         <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2200,7 +2200,7 @@
         <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2233,10 +2233,10 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2269,7 +2269,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2317,7 +2317,7 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -2921,7 +2921,7 @@
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2933,10 +2933,10 @@
         <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2972,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA14" t="n">
         <v>41</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
@@ -3127,10 +3127,10 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
         <v>1.53</v>
@@ -3461,28 +3461,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -3518,10 +3518,10 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3542,7 +3542,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>13</v>
@@ -3563,7 +3563,7 @@
         <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3587,7 +3587,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3596,7 +3596,7 @@
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>
@@ -3643,22 +3643,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="J18" t="n">
         <v>6.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="L18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3667,127 +3667,127 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T18" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="W18" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X18" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM18" t="n">
         <v>175</v>
       </c>
-      <c r="AA18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AN18" t="n">
         <v>10</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9.25</v>
       </c>
       <c r="AO18" t="n">
         <v>37</v>
       </c>
       <c r="AP18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>200</v>
       </c>
       <c r="AR18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS18" t="n">
         <v>175</v>
       </c>
-      <c r="AS18" t="n">
-        <v>250</v>
-      </c>
       <c r="AT18" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV18" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AY18" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BB18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BC18" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1311,22 +1311,22 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1683,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S7" t="n">
         <v>1.36</v>
@@ -1837,22 +1837,22 @@
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1861,10 +1861,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1873,34 +1873,34 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1918,7 +1918,7 @@
         <v>23</v>
       </c>
       <c r="AJ8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="n">
         <v>51</v>
@@ -1930,16 +1930,16 @@
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1951,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -1966,7 +1966,7 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
         <v>201</v>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2024,7 +2024,7 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2033,16 +2033,16 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2051,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W9" t="n">
         <v>9.5</v>
@@ -2105,13 +2105,13 @@
         <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
@@ -2132,7 +2132,7 @@
         <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
         <v>4</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2921,7 +2921,7 @@
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2948,7 +2948,7 @@
         <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -3643,22 +3643,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="H18" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="J18" t="n">
         <v>6.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3670,19 +3670,19 @@
         <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R18" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="S18" t="n">
         <v>1.19</v>
       </c>
       <c r="T18" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="U18" t="n">
         <v>1.5</v>
@@ -3697,7 +3697,7 @@
         <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
         <v>200</v>
@@ -3709,25 +3709,25 @@
         <v>40</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF18" t="n">
         <v>37</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
         <v>9.75</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ18" t="n">
         <v>10.75</v>
@@ -3742,7 +3742,7 @@
         <v>175</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AO18" t="n">
         <v>37</v>
@@ -3760,10 +3760,10 @@
         <v>175</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV18" t="n">
         <v>35</v>
@@ -3772,16 +3772,16 @@
         <v>3.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY18" t="n">
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -1117,7 +1117,7 @@
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.1</v>
@@ -1126,7 +1126,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1186,13 +1186,13 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1204,7 +1204,7 @@
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
@@ -1213,7 +1213,7 @@
         <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2933,28 +2933,28 @@
         <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
@@ -2993,7 +2993,7 @@
         <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH14" t="n">
         <v>7</v>
@@ -3005,7 +3005,7 @@
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>29</v>
@@ -3029,10 +3029,10 @@
         <v>151</v>
       </c>
       <c r="AS14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>9</v>
@@ -3044,7 +3044,7 @@
         <v>3.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
@@ -3127,10 +3127,10 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
         <v>1.53</v>
@@ -3643,19 +3643,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
         <v>1.34</v>
       </c>
       <c r="J18" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.72</v>
@@ -3670,49 +3670,49 @@
         <v>1.09</v>
       </c>
       <c r="P18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="R18" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="T18" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V18" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
         <v>40</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE18" t="n">
         <v>14.5</v>
@@ -3721,22 +3721,22 @@
         <v>37</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK18" t="n">
         <v>9.75</v>
       </c>
       <c r="AL18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
         <v>175</v>
@@ -3745,13 +3745,13 @@
         <v>9.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AR18" t="n">
         <v>150</v>
@@ -3760,34 +3760,34 @@
         <v>175</v>
       </c>
       <c r="AT18" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="AU18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV18" t="n">
         <v>35</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AX18" t="n">
         <v>6.1</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AZ18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BA18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB18" t="n">
         <v>80</v>
       </c>
       <c r="BC18" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -750,19 +750,19 @@
         <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,31 +771,31 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -810,31 +810,31 @@
         <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>9</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -843,16 +843,16 @@
         <v>41</v>
       </c>
       <c r="AM2" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
         <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -861,16 +861,16 @@
         <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="n">
         <v>4</v>
@@ -882,19 +882,19 @@
         <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1843,7 +1843,7 @@
         <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1879,7 +1879,7 @@
         <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
@@ -1888,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1957,7 +1957,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
@@ -2191,13 +2191,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2245,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -2272,16 +2272,16 @@
         <v>7.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
         <v>13</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -3399,7 +3399,7 @@
         <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3411,13 +3411,13 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1490,13 +1490,13 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1553,7 +1553,7 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1565,7 +1565,7 @@
         <v>151</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>81</v>
@@ -2915,13 +2915,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2945,10 +2945,10 @@
         <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2963,7 +2963,7 @@
         <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -3014,7 +3014,7 @@
         <v>351</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
         <v>34</v>
@@ -3041,7 +3041,7 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX14" t="n">
         <v>8</v>
@@ -3461,16 +3461,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3482,7 +3482,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -3512,10 +3512,10 @@
         <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
@@ -3539,13 +3539,13 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -3560,7 +3560,7 @@
         <v>251</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO17" t="n">
         <v>10</v>
@@ -3581,7 +3581,7 @@
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3590,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>
@@ -3602,7 +3602,7 @@
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>
@@ -3610,186 +3610,6 @@
       <c r="BD17" t="n">
         <v>126</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>0CEt6wPQ</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Al Urooba</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Al Ain</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>37</v>
-      </c>
-      <c r="X18" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>24</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -765,16 +765,16 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -1126,13 +1126,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1186,10 +1186,10 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
@@ -1204,7 +1204,7 @@
         <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
         <v>201</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
         <v>201</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1311,16 +1311,16 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1849,10 +1849,10 @@
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2233,10 +2233,10 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2272,7 +2272,7 @@
         <v>7.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2915,13 +2915,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2933,10 +2933,10 @@
         <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
@@ -2963,7 +2963,7 @@
         <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
@@ -2972,7 +2972,7 @@
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
         <v>41</v>
@@ -2981,7 +2981,7 @@
         <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
         <v>7.5</v>
@@ -2990,7 +2990,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
         <v>6.5</v>
@@ -3014,10 +3014,10 @@
         <v>351</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="n">
         <v>41</v>
@@ -3041,7 +3041,7 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX14" t="n">
         <v>8</v>
@@ -3297,13 +3297,13 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
         <v>3.5</v>
@@ -3461,16 +3461,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
         <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3482,7 +3482,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -3491,16 +3491,16 @@
         <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
@@ -3512,16 +3512,16 @@
         <v>7</v>
       </c>
       <c r="X17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3539,13 +3539,13 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
         <v>41</v>
@@ -3557,7 +3557,7 @@
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN17" t="n">
         <v>3.75</v>
@@ -3578,7 +3578,7 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU17" t="n">
         <v>8.5</v>
@@ -3590,7 +3590,7 @@
         <v>6</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
@@ -765,22 +765,22 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -1129,22 +1129,22 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>1.73</v>
@@ -1493,10 +1493,10 @@
         <v>9.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1526,7 +1526,7 @@
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1559,7 +1559,7 @@
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>151</v>
@@ -1583,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1601,7 +1601,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX6" t="n">
         <v>51</v>
@@ -1610,7 +1610,7 @@
         <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA6" t="n">
         <v>301</v>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.8</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.75</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
         <v>4.33</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1689,10 +1689,10 @@
         <v>2.08</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1722,10 +1722,10 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1743,13 +1743,13 @@
         <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>23</v>
       </c>
       <c r="AM7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN7" t="n">
         <v>6</v>
@@ -1770,7 +1770,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1782,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>51</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2394,7 +2394,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2915,46 +2915,46 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -2963,13 +2963,13 @@
         <v>1.73</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
         <v>51</v>
@@ -2978,34 +2978,34 @@
         <v>41</v>
       </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
         <v>6.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
         <v>29</v>
@@ -3014,25 +3014,25 @@
         <v>351</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO14" t="n">
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR14" t="n">
         <v>126</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>151</v>
       </c>
       <c r="AS14" t="n">
         <v>301</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU14" t="n">
         <v>9</v>
@@ -3041,16 +3041,16 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3244,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3297,22 +3297,22 @@
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
         <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3461,22 +3461,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -3494,7 +3494,7 @@
         <v>2.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3518,7 +3518,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
@@ -3542,7 +3542,7 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI17" t="n">
         <v>13</v>
@@ -3560,16 +3560,16 @@
         <v>301</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
@@ -3587,7 +3587,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3596,7 +3596,7 @@
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA17" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1493,10 +1493,10 @@
         <v>9.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1526,7 +1526,7 @@
         <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>26</v>
@@ -1553,13 +1553,13 @@
         <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>151</v>
@@ -1583,7 +1583,7 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1601,7 +1601,7 @@
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX6" t="n">
         <v>51</v>
@@ -1610,7 +1610,7 @@
         <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA6" t="n">
         <v>301</v>
@@ -2197,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -2209,10 +2209,10 @@
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2233,10 +2233,10 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2257,7 +2257,7 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2275,13 +2275,13 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ10" t="n">
         <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -3121,10 +3121,10 @@
         <v>7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
         <v>2.5</v>
@@ -3244,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3485,10 +3485,10 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q17" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -1126,7 +1126,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1153,10 +1153,10 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1183,10 +1183,10 @@
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA4" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.1</v>
@@ -2045,10 +2045,10 @@
         <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
         <v>1.91</v>
@@ -2063,10 +2063,10 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>29</v>
@@ -2102,7 +2102,7 @@
         <v>19</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>301</v>
@@ -2120,13 +2120,13 @@
         <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K15" t="n">
         <v>1.95</v>
@@ -3133,37 +3133,37 @@
         <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>41</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3175,22 +3175,22 @@
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
         <v>501</v>
@@ -3202,7 +3202,7 @@
         <v>23</v>
       </c>
       <c r="AP15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ15" t="n">
         <v>81</v>
@@ -3211,25 +3211,25 @@
         <v>126</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX15" t="n">
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
@@ -3244,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3279,28 +3279,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J16" t="n">
         <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3309,10 +3309,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
         <v>1.4</v>
@@ -3327,7 +3327,7 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X16" t="n">
         <v>15</v>
@@ -3345,7 +3345,7 @@
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3363,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
@@ -3372,16 +3372,16 @@
         <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>201</v>
       </c>
       <c r="AN16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
@@ -3399,7 +3399,7 @@
         <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
@@ -3411,13 +3411,13 @@
         <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
         <v>151</v>
@@ -3461,16 +3461,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -3491,10 +3491,10 @@
         <v>3.25</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S17" t="n">
         <v>1.44</v>
@@ -3539,7 +3539,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>19</v>
@@ -3551,13 +3551,13 @@
         <v>41</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN17" t="n">
         <v>4</v>
@@ -3581,7 +3581,7 @@
         <v>2.63</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3602,7 +3602,7 @@
         <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -789,10 +789,10 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -828,13 +828,13 @@
         <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
@@ -1126,31 +1126,31 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.38</v>
@@ -1168,13 +1168,13 @@
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1183,7 +1183,7 @@
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>101</v>
@@ -1192,7 +1192,7 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1213,7 +1213,7 @@
         <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA4" t="n">
         <v>201</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>251</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1302,7 +1302,7 @@
         <v>1.45</v>
       </c>
       <c r="J5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1311,10 +1311,10 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1347,7 +1347,7 @@
         <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
         <v>101</v>
@@ -1362,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>1.73</v>
@@ -1490,13 +1490,13 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
@@ -1517,10 +1517,10 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>6.5</v>
@@ -1532,7 +1532,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
@@ -1547,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1565,7 +1565,7 @@
         <v>151</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
         <v>81</v>
@@ -1574,10 +1574,10 @@
         <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1610,10 +1610,10 @@
         <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BA6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -2027,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -2039,10 +2039,10 @@
         <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -3127,10 +3127,10 @@
         <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
         <v>1.57</v>
@@ -3139,22 +3139,22 @@
         <v>2.25</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA15" t="n">
         <v>41</v>
@@ -3169,16 +3169,16 @@
         <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
         <v>5.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
         <v>9.5</v>
@@ -3187,7 +3187,7 @@
         <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
@@ -3196,22 +3196,22 @@
         <v>501</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP15" t="n">
         <v>41</v>
       </c>
       <c r="AQ15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS15" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT15" t="n">
         <v>2.25</v>
@@ -3226,7 +3226,7 @@
         <v>3.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
@@ -3244,7 +3244,7 @@
         <v>126</v>
       </c>
       <c r="BD15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
@@ -3285,10 +3285,10 @@
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -3339,7 +3339,7 @@
         <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3369,7 +3369,7 @@
         <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -959,10 +959,10 @@
         <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
         <v>1.67</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1843,7 +1843,7 @@
         <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1855,16 +1855,16 @@
         <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1885,10 +1885,10 @@
         <v>6.5</v>
       </c>
       <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1909,7 +1909,7 @@
         <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
@@ -1957,7 +1957,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
@@ -2191,22 +2191,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2233,25 +2233,25 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2269,7 +2269,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH10" t="n">
         <v>13</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>301</v>
@@ -2317,7 +2317,7 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -3250,7 +3250,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0CEysv2s</t>
+          <t>2JJayzWI</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3270,344 +3270,162 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Stockholm Internazionale</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Sundsvall</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.1</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.98</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
         <v>13</v>
       </c>
-      <c r="AF16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2JJayzWI</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Stockholm Internazionale</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Sundsvall</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>10</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W17" t="n">
-        <v>7</v>
-      </c>
-      <c r="X17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>251</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
         <v>126</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -965,28 +965,28 @@
         <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>21</v>
@@ -995,7 +995,7 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -1019,7 +1019,7 @@
         <v>51</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,7 +1031,7 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1043,19 +1043,19 @@
         <v>81</v>
       </c>
       <c r="AS3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
         <v>29</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2024,7 +2024,7 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2075,7 +2075,7 @@
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2573,16 +2573,16 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD16"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1347,7 +1347,7 @@
         <v>41</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z5" t="n">
         <v>101</v>
@@ -1362,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>15</v>
@@ -1490,7 +1490,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1544,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>29</v>
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1695,10 +1695,10 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>13</v>
@@ -1731,10 +1731,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>8.5</v>
@@ -1758,7 +1758,7 @@
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
         <v>67</v>
@@ -1773,7 +1773,7 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1782,7 +1782,7 @@
         <v>4</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>19</v>
@@ -2883,552 +2883,6 @@
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>I33MmJIN</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ROMANIA - LIGA 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FC Botosani</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>FCSB</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
-        <v>12</v>
-      </c>
-      <c r="X14" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>b1wxbpIb</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Landskrona</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Varnamo</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>451</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2JJayzWI</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SWEDEN - SUPERETTAN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Stockholm Internazionale</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Sundsvall</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>126</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2.63</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -971,13 +971,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1311,10 +1311,10 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J2" t="n">
         <v>4.33</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -789,13 +789,13 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>17</v>
@@ -828,10 +828,10 @@
         <v>6</v>
       </c>
       <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -894,7 +894,7 @@
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.63</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -971,13 +971,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J5" t="n">
         <v>7.5</v>
@@ -1311,10 +1311,10 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1499,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -807,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,13 +828,13 @@
         <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI2" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -849,7 +849,7 @@
         <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2.63</v>
@@ -944,7 +944,7 @@
         <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -971,13 +971,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1129,22 +1129,22 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1311,10 +1311,10 @@
         <v>2.05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1499,16 +1499,16 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -2373,13 +2373,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2394,7 +2394,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2421,7 +2421,7 @@
         <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X11" t="n">
         <v>9</v>
@@ -2433,7 +2433,7 @@
         <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
@@ -2442,16 +2442,16 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2475,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2508,7 +2508,7 @@
         <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -2024,7 +2024,7 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2060,7 +2060,7 @@
         <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2123,19 +2123,19 @@
         <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2394,7 +2394,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -947,16 +947,16 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
         <v>2.7</v>
@@ -971,13 +971,13 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
@@ -1147,16 +1147,16 @@
         <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1174,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1186,13 +1186,13 @@
         <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1213,7 +1213,7 @@
         <v>3.25</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1478,16 +1478,16 @@
         <v>1.25</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
         <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
         <v>10</v>
@@ -1496,19 +1496,19 @@
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,19 +1517,19 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
@@ -1541,19 +1541,19 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1565,7 +1565,7 @@
         <v>151</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>81</v>
@@ -1574,13 +1574,13 @@
         <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
         <v>5.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>15</v>
@@ -1610,10 +1610,10 @@
         <v>51</v>
       </c>
       <c r="AZ6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1671,10 +1671,10 @@
         <v>2.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1683,10 +1683,10 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -2024,7 +2024,7 @@
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2060,7 +2060,7 @@
         <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>12</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
         <v>13</v>
@@ -2215,16 +2215,16 @@
         <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2755,16 +2755,16 @@
         <v>2.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>p6FUUm68</t>
+          <t>jVzhHUy9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,157 +738,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W2" t="n">
+        <v>5</v>
+      </c>
+      <c r="X2" t="n">
         <v>7</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB2" t="n">
         <v>501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jVzhHUy9</t>
+          <t>tKT4ESLR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -920,103 +920,103 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Talleres Cordoba</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gimnasia L.P.</t>
+          <t>Sarmiento Junin</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.63</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="U3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>6</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7</v>
-      </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="n">
         <v>15</v>
       </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI3" t="n">
         <v>21</v>
       </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1028,25 +1028,25 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,16 +1055,16 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
         <v>201</v>
@@ -1073,16 +1073,16 @@
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tKT4ESLR</t>
+          <t>b9JYT7LE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1102,31 +1102,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Talleres Cordoba</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sarmiento Junin</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>8.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1135,16 +1135,16 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1159,28 +1159,28 @@
         <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="AA4" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1189,43 +1189,43 @@
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
       </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
       <c r="AM4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>201</v>
       </c>
-      <c r="AN4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>26</v>
-      </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1237,25 +1237,25 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>3.2</v>
       </c>
       <c r="AX4" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AZ4" t="n">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
         <v>201</v>
       </c>
-      <c r="BB4" t="n">
-        <v>501</v>
-      </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>b9JYT7LE</t>
+          <t>8GflZ10m</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,65 +1274,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Royal Pari</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.5</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>7.5</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L5" t="n">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.33</v>
       </c>
-      <c r="P5" t="n">
+      <c r="T5" t="n">
         <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1341,112 +1341,108 @@
         <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AH5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>15</v>
       </c>
-      <c r="AL5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO5" t="n">
+      <c r="AR5" t="n">
         <v>41</v>
       </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>251</v>
-      </c>
       <c r="AS5" t="n">
-        <v>501</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.2</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>7.5</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>151</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8GflZ10m</t>
+          <t>fgWKXlPr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1452,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,49 +1462,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.25</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.67</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>2.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1517,76 +1513,76 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
         <v>81</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1595,28 +1591,28 @@
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AX6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="AY6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>301</v>
-      </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1624,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>fgWKXlPr</t>
+          <t>jLPTVSge</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,7 +1630,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1644,37 +1640,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.1</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1683,118 +1679,118 @@
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.1</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN7" t="n">
         <v>3.25</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>13</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
         <v>41</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>81</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
@@ -1802,7 +1798,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jLPTVSge</t>
+          <t>zPs4uVuR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,175 +1808,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8</v>
       </c>
-      <c r="J8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AX8" t="n">
         <v>12</v>
       </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="BB8" t="n">
         <v>201</v>
       </c>
-      <c r="BB8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="inlineStr"/>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zPs4uVuR</t>
+          <t>nFe0EWXO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,167 +1990,167 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.25</v>
       </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>67</v>
       </c>
-      <c r="AR9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2162,7 +2162,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nFe0EWXO</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2182,85 +2182,85 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.53</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2269,58 +2269,58 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
         <v>13</v>
       </c>
-      <c r="AI10" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK10" t="n">
         <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2332,7 +2332,7 @@
         <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2344,7 +2344,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>QuRAYZIt</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,59 +2354,59 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>1.5</v>
@@ -2415,76 +2415,76 @@
         <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
         <v>9</v>
       </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI11" t="n">
         <v>17</v>
       </c>
-      <c r="AI11" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK11" t="n">
         <v>41</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>34</v>
       </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
         <v>201</v>
@@ -2499,34 +2499,34 @@
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BC11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6cNu9v1t</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2536,41 +2536,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2585,303 +2585,121 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9</v>
       </c>
-      <c r="Z12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA12" t="n">
+      <c r="AJ12" t="n">
         <v>17</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP12" t="n">
         <v>34</v>
       </c>
-      <c r="AC12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>67</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>41</v>
       </c>
-      <c r="AZ12" t="n">
-        <v>126</v>
-      </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>f9nge664</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB13" t="n">
         <v>201</v>
       </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1001,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>12</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1323,10 +1323,10 @@
         <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,10 +1335,10 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
@@ -1848,7 +1848,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1881,7 +1881,7 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>41</v>
@@ -1926,7 +1926,7 @@
         <v>301</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1941,7 +1941,7 @@
         <v>81</v>
       </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT8" t="n">
         <v>2.63</v>
@@ -2376,7 +2376,7 @@
         <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
@@ -2385,7 +2385,7 @@
         <v>2.38</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>5.5</v>
@@ -2394,7 +2394,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2421,7 +2421,7 @@
         <v>1.67</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
         <v>7</v>
@@ -2433,13 +2433,13 @@
         <v>13</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
@@ -2451,7 +2451,7 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>23</v>
@@ -2481,7 +2481,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2514,7 +2514,7 @@
         <v>151</v>
       </c>
       <c r="BB11" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2573,16 +2573,16 @@
         <v>2.63</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
         <v>6</v>
@@ -1073,7 +1073,7 @@
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1296,7 +1296,7 @@
         <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>10</v>
@@ -1314,19 +1314,19 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1341,16 +1341,16 @@
         <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
         <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>12</v>
@@ -1359,34 +1359,34 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
         <v>351</v>
@@ -1395,13 +1395,13 @@
         <v>3.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
@@ -1413,25 +1413,25 @@
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
         <v>351</v>
@@ -1848,7 +1848,7 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1857,10 +1857,10 @@
         <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2394,7 +2394,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,34 +747,34 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N2" t="n">
         <v>6</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -837,7 +837,7 @@
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -1495,10 +1495,10 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
         <v>1.7</v>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
         <v>4.5</v>
@@ -1670,7 +1670,7 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1685,25 +1685,25 @@
         <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
@@ -1715,7 +1715,7 @@
         <v>29</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>9</v>
@@ -1727,13 +1727,13 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>81</v>
@@ -1766,7 +1766,7 @@
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
@@ -1787,7 +1787,7 @@
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1827,13 +1827,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1857,10 +1857,10 @@
         <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1875,7 +1875,7 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1914,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>19</v>
@@ -1929,7 +1929,7 @@
         <v>5.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
@@ -1938,7 +1938,7 @@
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" t="n">
         <v>251</v>
@@ -1947,7 +1947,7 @@
         <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -2024,7 +2024,7 @@
         <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>1.11</v>
@@ -2066,7 +2066,7 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
@@ -2555,22 +2555,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
@@ -2585,10 +2585,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2606,10 +2606,10 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>41</v>
@@ -2621,7 +2621,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>6.5</v>
@@ -2636,13 +2636,13 @@
         <v>6.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>17</v>
@@ -2684,19 +2684,19 @@
         <v>3.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -801,10 +801,10 @@
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -885,7 +885,7 @@
         <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -977,7 +977,7 @@
         <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>6</v>
@@ -992,13 +992,13 @@
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
         <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -1007,7 +1007,7 @@
         <v>101</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>34</v>
@@ -1022,13 +1022,13 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO3" t="n">
         <v>7.5</v>
@@ -1037,7 +1037,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1055,13 +1055,13 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ3" t="n">
         <v>201</v>
@@ -1073,7 +1073,7 @@
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1649,13 +1649,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.91</v>
@@ -1670,19 +1670,19 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
         <v>1.33</v>
@@ -1697,13 +1697,13 @@
         <v>1.73</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>6.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
@@ -1727,16 +1727,16 @@
         <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1775,7 +1775,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -1787,7 +1787,7 @@
         <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -2033,16 +2033,16 @@
         <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2394,7 +2394,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2481,7 +2481,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2508,7 +2508,7 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -765,16 +765,16 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -801,10 +801,10 @@
         <v>7.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>21</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -885,7 +885,7 @@
         <v>126</v>
       </c>
       <c r="BA2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB2" t="n">
         <v>501</v>
@@ -1073,7 +1073,7 @@
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8GflZ10m</t>
+          <t>fgWKXlPr</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,49 +1284,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Tomayapo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Royal Pari</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>1.75</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>2.38</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
         <v>1.33</v>
@@ -1335,76 +1335,76 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL5" t="n">
         <v>23</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AM5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
         <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1413,28 +1413,28 @@
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1442,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>fgWKXlPr</t>
+          <t>jLPTVSge</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1462,49 +1462,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.75</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1513,76 +1513,76 @@
         <v>3.25</v>
       </c>
       <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.73</v>
       </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="Y6" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>151</v>
@@ -1591,28 +1591,28 @@
         <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="inlineStr"/>
@@ -1620,7 +1620,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jLPTVSge</t>
+          <t>zPs4uVuR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,175 +1630,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.36</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="P7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y7" t="n">
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
         <v>12</v>
       </c>
-      <c r="AB7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AY7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AG7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
+      <c r="BB7" t="n">
         <v>151</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zPs4uVuR</t>
+          <t>nFe0EWXO</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1808,167 +1812,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L8" t="n">
         <v>4</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.88</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
         <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>101</v>
       </c>
       <c r="AS8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -1980,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nFe0EWXO</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1990,7 +1994,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2000,85 +2004,85 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.53</v>
       </c>
-      <c r="P9" t="n">
+      <c r="T9" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD9" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2087,58 +2091,58 @@
         <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
         <v>13</v>
       </c>
-      <c r="AI9" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
       <c r="AL9" t="n">
         <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
@@ -2150,7 +2154,7 @@
         <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2162,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>QuRAYZIt</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2172,143 +2176,143 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>34</v>
       </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>41</v>
-      </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2317,34 +2321,34 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6cNu9v1t</t>
+          <t>f9nge664</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2354,352 +2358,170 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Guadalajara Chivas</t>
+          <t>Sportivo Trinidense</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.38</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>7</v>
       </c>
       <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY11" t="n">
         <v>21</v>
       </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ11" t="n">
+      <c r="AZ11" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA11" t="n">
         <v>51</v>
       </c>
-      <c r="AK11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>501</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="BB11" t="n">
         <v>151</v>
       </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>f9nge664</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Sportivo Trinidense</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>351</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -750,13 +750,13 @@
         <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -807,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>29</v>
@@ -1073,7 +1073,7 @@
         <v>501</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
@@ -1308,13 +1308,13 @@
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
@@ -1335,16 +1335,16 @@
         <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>13</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
         <v>13</v>
@@ -1353,7 +1353,7 @@
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
@@ -1371,7 +1371,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>9</v>
@@ -1389,13 +1389,13 @@
         <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="n">
         <v>29</v>
@@ -1413,7 +1413,7 @@
         <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1425,16 +1425,16 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.91</v>
@@ -1519,13 +1519,13 @@
         <v>1.73</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>9</v>
@@ -1549,16 +1549,16 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1597,7 +1597,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>41</v>
@@ -1609,7 +1609,7 @@
         <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1831,16 +1831,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I8" t="n">
         <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
@@ -1849,10 +1849,10 @@
         <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1867,10 +1867,10 @@
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
@@ -1888,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>26</v>
@@ -1897,10 +1897,10 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
@@ -1933,10 +1933,10 @@
         <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
@@ -1948,10 +1948,10 @@
         <v>301</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1285,16 +1285,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1345,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1366,7 +1366,7 @@
         <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>9.5</v>
@@ -1485,10 +1485,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.53</v>
@@ -1855,10 +1855,10 @@
         <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -750,7 +750,7 @@
         <v>8.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1.45</v>
@@ -765,10 +765,10 @@
         <v>2.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -795,13 +795,13 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X2" t="n">
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>101</v>
@@ -813,10 +813,10 @@
         <v>67</v>
       </c>
       <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
         <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>23</v>
@@ -837,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -1128,7 +1128,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1137,10 +1137,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1467,13 +1467,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1482,7 +1482,7 @@
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.13</v>
@@ -1566,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>17</v>
@@ -1608,7 +1608,7 @@
         <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD8"/>
+  <dimension ref="A1:BD6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,7 +801,7 @@
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>101</v>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fgWKXlPr</t>
+          <t>jLPTVSge</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,37 +920,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tomayapo</t>
+          <t>The Strongest</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bolivar</t>
+          <t>Wilstermann</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>1.36</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>2.38</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
         <v>1.33</v>
@@ -971,103 +971,103 @@
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
         <v>21</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI3" t="n">
         <v>41</v>
       </c>
-      <c r="AA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AJ3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR3" t="n">
         <v>41</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>3.25</v>
       </c>
       <c r="AT3" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AV3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="AZ3" t="n">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jLPTVSge</t>
+          <t>nFe0EWXO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,175 +1088,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>Deportes Tolima</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.36</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.91</v>
       </c>
-      <c r="K4" t="n">
-        <v>2.4</v>
-      </c>
       <c r="L4" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>2.08</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
         <v>41</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
+      <c r="AN4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>101</v>
       </c>
-      <c r="AL4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>41</v>
-      </c>
       <c r="AS4" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="AT4" t="n">
         <v>9.5</v>
       </c>
       <c r="AU4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY4" t="n">
         <v>67</v>
       </c>
-      <c r="AV4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>151</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
         <v>351</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zPs4uVuR</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,41 +1270,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1309,121 +1313,121 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>9.5</v>
       </c>
-      <c r="X5" t="n">
-        <v>17</v>
-      </c>
       <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>13</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AK5" t="n">
         <v>41</v>
       </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
         <v>41</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT5" t="n">
         <v>9</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>8.5</v>
       </c>
       <c r="AU5" t="n">
         <v>67</v>
       </c>
       <c r="AV5" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
         <v>251</v>
@@ -1438,7 +1442,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nFe0EWXO</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,536 +1452,172 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
         <v>6</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>34</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AW6" t="n">
         <v>29</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AX6" t="n">
         <v>41</v>
       </c>
-      <c r="AN6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AY6" t="n">
         <v>101</v>
       </c>
-      <c r="AS6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>67</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
         <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>QuRAYZIt</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:30</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Junior</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>America De Cali</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6cNu9v1t</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD8" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.91</v>
@@ -944,13 +944,13 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -977,7 +977,7 @@
         <v>1.73</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
         <v>6.5</v>
@@ -998,7 +998,7 @@
         <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1019,7 +1019,7 @@
         <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,7 +1031,7 @@
         <v>3.25</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
@@ -1046,13 +1046,13 @@
         <v>3.25</v>
       </c>
       <c r="AT3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU3" t="n">
         <v>67</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AW3" t="n">
         <v>41</v>
@@ -1064,10 +1064,10 @@
         <v>151</v>
       </c>
       <c r="AZ3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,7 +756,7 @@
         <v>1.45</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
@@ -765,10 +765,10 @@
         <v>2.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -801,7 +801,7 @@
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
         <v>101</v>
@@ -813,7 +813,7 @@
         <v>67</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>8</v>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="AL2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>34</v>
@@ -852,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ2" t="n">
         <v>201</v>
@@ -1078,7 +1078,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nFe0EWXO</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1098,142 +1098,142 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Deportes Tolima</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J4" t="n">
         <v>3</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.53</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
         <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AD4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>13</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>12</v>
-      </c>
       <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
         <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1245,10 +1245,10 @@
         <v>101</v>
       </c>
       <c r="BA4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1260,7 +1260,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QuRAYZIt</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1270,140 +1270,140 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>1250</v>
+        <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
         <v>41</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>41</v>
-      </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -1412,212 +1412,30 @@
         <v>67</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD5" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6cNu9v1t</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
@@ -765,10 +765,10 @@
         <v>2.05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -795,13 +795,13 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>101</v>
@@ -852,7 +852,7 @@
         <v>41</v>
       </c>
       <c r="AP2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>201</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jLPTVSge</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,65 +910,65 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Strongest</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Wilstermann</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.4</v>
       </c>
-      <c r="H3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.22</v>
-      </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -977,73 +977,73 @@
         <v>1.73</v>
       </c>
       <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC3" t="n">
         <v>7</v>
       </c>
-      <c r="X3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH3" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>19</v>
-      </c>
       <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
         <v>41</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
         <v>81</v>
       </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
-      </c>
       <c r="AS3" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AT3" t="n">
         <v>9</v>
@@ -1052,33 +1052,37 @@
         <v>67</v>
       </c>
       <c r="AV3" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AW3" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>301</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>QuRAYZIt</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,354 +1092,172 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>7</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7</v>
       </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>1250</v>
+        <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>17</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>13</v>
-      </c>
       <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
         <v>41</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>34</v>
       </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AU4" t="n">
         <v>67</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AZ4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6cNu9v1t</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -944,25 +944,25 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1004,13 +1004,13 @@
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>1250</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1040,7 +1040,7 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>2.38</v>
@@ -1052,7 +1052,7 @@
         <v>67</v>
       </c>
       <c r="AV3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AW3" t="n">
         <v>21</v>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>5.5</v>
@@ -1132,19 +1132,19 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1162,13 +1162,13 @@
         <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>17</v>
@@ -1192,13 +1192,13 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1210,10 +1210,10 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
@@ -1228,13 +1228,13 @@
         <v>2.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
         <v>67</v>
       </c>
       <c r="AV4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
         <v>29</v>
@@ -1243,13 +1243,13 @@
         <v>41</v>
       </c>
       <c r="AY4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AZ4" t="n">
         <v>151</v>
       </c>
       <c r="BA4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BB4" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,52 +656,52 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-2_HT</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-0_HT</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1_HT</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2_HT</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2_HT</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>b9JYT7LE</t>
+          <t>QuRAYZIt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
         <v>8.5</v>
       </c>
-      <c r="H2" t="n">
+      <c r="AI2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W2" t="n">
-        <v>15</v>
-      </c>
-      <c r="X2" t="n">
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>41</v>
       </c>
-      <c r="Y2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AR2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA2" t="n">
         <v>101</v>
       </c>
-      <c r="AA2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>251</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>201</v>
-      </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>QuRAYZIt</t>
+          <t>6cNu9v1t</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,47 +910,47 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Guadalajara Chivas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,79 +959,79 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>1250</v>
+        <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
-        <v>34</v>
-      </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1043,221 +1043,39 @@
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.38</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
         <v>9</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>67</v>
       </c>
-      <c r="AV3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AW3" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6cNu9v1t</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -750,37 +750,37 @@
         <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
         <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -798,10 +798,10 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>21</v>
@@ -822,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -831,7 +831,7 @@
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,16 +765,16 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -895,188 +895,6 @@
       </c>
       <c r="BD2" t="n">
         <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6cNu9v1t</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>21/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Guadalajara Chivas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QuRAYZIt</t>
+          <t>p6FUUm68</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,100 +771,100 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>8.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP2" t="n">
         <v>34</v>
       </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -873,22 +873,22 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -896,6 +896,3790 @@
       <c r="BD2" t="n">
         <v>126</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>jVzhHUy9</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gimnasia L.P.</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>tKT4ESLR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Talleres Cordoba</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sarmiento Junin</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>b9JYT7LE</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ARGENTINA - TORNEO BETANO</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ind. Rivadavia</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W5" t="n">
+        <v>15</v>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>8GflZ10m</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Always Ready</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Royal Pari</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fgWKXlPr</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tomayapo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bolivar</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>13</v>
+      </c>
+      <c r="X7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>jLPTVSge</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The Strongest</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Wilstermann</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>zPs4uVuR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BRAZIL - SERIE A BETANO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vasco</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nFe0EWXO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QuRAYZIt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>YcOmaJ3S</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Madura United</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Arema FC</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>QXKu1uZF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>05:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Malut United</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Persis Solo</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>600</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>150</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IVaKgcRk</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>INDONESIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Semen Padang</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PSM Makassar</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>65</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6cNu9v1t</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA MX</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Guadalajara Chivas</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f9nge664</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>11</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I33MmJIN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FC Botosani</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W17" t="n">
+        <v>12</v>
+      </c>
+      <c r="X17" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MJlPfN4K</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Jeonnam</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Busan</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>11</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>b1wxbpIb</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SWEDEN - ALLSVENSKAN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Landskrona</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Varnamo</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>451</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0CEysv2s</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Lunds</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ostersund</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2JJayzWI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Stockholm Internazionale</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sundsvall</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>YJ1TdZoD</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Al Bataeh</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Khorfakkan</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W22" t="n">
+        <v>15</v>
+      </c>
+      <c r="X22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>120</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0CEt6wPQ</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Al Urooba</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>10</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>37</v>
+      </c>
+      <c r="X23" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>350</v>
+      </c>
+      <c r="BD23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
